--- a/Pake Dataset/dataset/Data.xlsx
+++ b/Pake Dataset/dataset/Data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\Project Skripsi\dataset\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\skripsi\Pake Dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90F5AF1A-D35A-41EA-90AE-DAC12D3BD71C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01130D-E4B0-49F1-AD52-3745E316F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2808" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="303">
   <si>
     <t>Nama Dosen</t>
   </si>
@@ -907,13 +907,40 @@
   </si>
   <si>
     <t>IS 681 Enterprise Application and Sys</t>
+  </si>
+  <si>
+    <t>Kode</t>
+  </si>
+  <si>
+    <t>AR</t>
+  </si>
+  <si>
+    <t>EE</t>
+  </si>
+  <si>
+    <t>CE</t>
+  </si>
+  <si>
+    <t>IF</t>
+  </si>
+  <si>
+    <t>IS</t>
+  </si>
+  <si>
+    <t>EM</t>
+  </si>
+  <si>
+    <t>EP</t>
+  </si>
+  <si>
+    <t>IK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -925,6 +952,12 @@
       <b/>
       <sz val="10"/>
       <name val="Arial Unicode MS"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1285,10 +1318,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H351"/>
+  <dimension ref="A1:I351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1303,7 +1336,7 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1328,8 +1361,11 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1354,8 +1390,11 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I2" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1380,8 +1419,11 @@
       <c r="H3" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3" s="3" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1406,8 +1448,11 @@
       <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1432,8 +1477,11 @@
       <c r="H5" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1458,8 +1506,11 @@
       <c r="H6" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I6" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1484,8 +1535,11 @@
       <c r="H7" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1510,8 +1564,11 @@
       <c r="H8" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1536,8 +1593,11 @@
       <c r="H9" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I9" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
@@ -1562,8 +1622,11 @@
       <c r="H10" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I10" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1588,8 +1651,11 @@
       <c r="H11" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I11" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
@@ -1614,8 +1680,11 @@
       <c r="H12" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I12" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1640,8 +1709,11 @@
       <c r="H13" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I13" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1666,8 +1738,11 @@
       <c r="H14" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I14" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1692,8 +1767,11 @@
       <c r="H15" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I15" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1718,8 +1796,11 @@
       <c r="H16" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I16" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1744,8 +1825,11 @@
       <c r="H17" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I17" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1770,8 +1854,11 @@
       <c r="H18" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I18" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1796,8 +1883,11 @@
       <c r="H19" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I19" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1822,8 +1912,11 @@
       <c r="H20" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I20" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -1848,8 +1941,11 @@
       <c r="H21" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I21" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1874,8 +1970,11 @@
       <c r="H22" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I22" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -1900,8 +1999,11 @@
       <c r="H23" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I23" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -1926,8 +2028,11 @@
       <c r="H24" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I24" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
@@ -1952,8 +2057,11 @@
       <c r="H25" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I25" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
@@ -1978,8 +2086,11 @@
       <c r="H26" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I26" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -2004,8 +2115,11 @@
       <c r="H27" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I27" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -2030,8 +2144,11 @@
       <c r="H28" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I28" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
@@ -2056,8 +2173,11 @@
       <c r="H29" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I29" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>80</v>
       </c>
@@ -2082,8 +2202,11 @@
       <c r="H30" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I30" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
@@ -2108,8 +2231,11 @@
       <c r="H31" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I31" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
@@ -2134,8 +2260,11 @@
       <c r="H32" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I32" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
@@ -2160,8 +2289,11 @@
       <c r="H33" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I33" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>86</v>
       </c>
@@ -2186,8 +2318,11 @@
       <c r="H34" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I34" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -2212,8 +2347,11 @@
       <c r="H35" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I35" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -2238,8 +2376,11 @@
       <c r="H36" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I36" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -2264,8 +2405,11 @@
       <c r="H37" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I37" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -2290,8 +2434,11 @@
       <c r="H38" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I38" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
@@ -2316,8 +2463,11 @@
       <c r="H39" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I39" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
@@ -2342,8 +2492,11 @@
       <c r="H40" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I40" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
@@ -2368,8 +2521,11 @@
       <c r="H41" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I41" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2394,8 +2550,11 @@
       <c r="H42" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I42" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -2420,8 +2579,11 @@
       <c r="H43" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I43" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -2446,8 +2608,11 @@
       <c r="H44" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I44" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>100</v>
       </c>
@@ -2472,8 +2637,11 @@
       <c r="H45" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I45" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
@@ -2498,8 +2666,11 @@
       <c r="H46" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I46" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -2524,8 +2695,11 @@
       <c r="H47" s="3" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I47" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
@@ -2550,8 +2724,11 @@
       <c r="H48" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I48" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
@@ -2576,8 +2753,11 @@
       <c r="H49" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I49" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
@@ -2602,8 +2782,11 @@
       <c r="H50" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I50" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -2628,8 +2811,11 @@
       <c r="H51" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I51" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>109</v>
       </c>
@@ -2654,8 +2840,11 @@
       <c r="H52" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I52" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -2680,8 +2869,11 @@
       <c r="H53" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I53" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
@@ -2706,8 +2898,11 @@
       <c r="H54" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I54" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
@@ -2732,8 +2927,11 @@
       <c r="H55" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I55" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -2758,8 +2956,11 @@
       <c r="H56" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I56" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>105</v>
       </c>
@@ -2784,8 +2985,11 @@
       <c r="H57" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I57" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
@@ -2810,8 +3014,11 @@
       <c r="H58" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I58" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>113</v>
       </c>
@@ -2836,8 +3043,11 @@
       <c r="H59" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I59" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>115</v>
       </c>
@@ -2862,8 +3072,11 @@
       <c r="H60" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I60" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
@@ -2888,8 +3101,11 @@
       <c r="H61" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I61" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>113</v>
       </c>
@@ -2914,8 +3130,11 @@
       <c r="H62" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I62" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>108</v>
       </c>
@@ -2940,8 +3159,11 @@
       <c r="H63" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I63" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
@@ -2966,8 +3188,11 @@
       <c r="H64" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I64" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>112</v>
       </c>
@@ -2992,8 +3217,11 @@
       <c r="H65" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I65" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>120</v>
       </c>
@@ -3018,8 +3246,11 @@
       <c r="H66" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I66" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>121</v>
       </c>
@@ -3044,8 +3275,11 @@
       <c r="H67" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I67" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>82</v>
       </c>
@@ -3070,8 +3304,11 @@
       <c r="H68" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I68" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>109</v>
       </c>
@@ -3096,8 +3333,11 @@
       <c r="H69" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I69" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>121</v>
       </c>
@@ -3122,8 +3362,11 @@
       <c r="H70" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I70" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>122</v>
       </c>
@@ -3148,8 +3391,11 @@
       <c r="H71" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I71" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>120</v>
       </c>
@@ -3174,8 +3420,11 @@
       <c r="H72" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I72" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
@@ -3200,8 +3449,11 @@
       <c r="H73" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I73" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
@@ -3226,8 +3478,11 @@
       <c r="H74" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I74" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
@@ -3252,8 +3507,11 @@
       <c r="H75" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I75" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>124</v>
       </c>
@@ -3278,8 +3536,11 @@
       <c r="H76" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I76" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
@@ -3304,8 +3565,11 @@
       <c r="H77" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I77" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>126</v>
       </c>
@@ -3330,8 +3594,11 @@
       <c r="H78" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I78" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>124</v>
       </c>
@@ -3356,8 +3623,11 @@
       <c r="H79" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I79" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
@@ -3382,8 +3652,11 @@
       <c r="H80" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I80" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>127</v>
       </c>
@@ -3408,8 +3681,11 @@
       <c r="H81" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I81" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>128</v>
       </c>
@@ -3434,8 +3710,11 @@
       <c r="H82" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I82" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
@@ -3460,8 +3739,11 @@
       <c r="H83" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I83" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>59</v>
       </c>
@@ -3486,8 +3768,11 @@
       <c r="H84" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I84" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>113</v>
       </c>
@@ -3512,8 +3797,11 @@
       <c r="H85" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I85" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>113</v>
       </c>
@@ -3538,8 +3826,11 @@
       <c r="H86" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I86" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -3564,8 +3855,11 @@
       <c r="H87" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I87" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
@@ -3590,8 +3884,11 @@
       <c r="H88" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I88" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>135</v>
       </c>
@@ -3616,8 +3913,11 @@
       <c r="H89" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I89" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
@@ -3642,8 +3942,11 @@
       <c r="H90" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I90" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>135</v>
       </c>
@@ -3668,8 +3971,11 @@
       <c r="H91" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I91" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>68</v>
       </c>
@@ -3694,8 +4000,11 @@
       <c r="H92" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -3720,8 +4029,11 @@
       <c r="H93" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I93" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -3746,8 +4058,11 @@
       <c r="H94" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I94" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>141</v>
       </c>
@@ -3772,8 +4087,11 @@
       <c r="H95" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I95" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>141</v>
       </c>
@@ -3798,8 +4116,11 @@
       <c r="H96" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I96" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>143</v>
       </c>
@@ -3824,8 +4145,11 @@
       <c r="H97" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I97" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -3850,8 +4174,11 @@
       <c r="H98" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I98" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>59</v>
       </c>
@@ -3876,8 +4203,11 @@
       <c r="H99" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I99" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>124</v>
       </c>
@@ -3902,8 +4232,11 @@
       <c r="H100" s="3" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I100" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -3928,8 +4261,11 @@
       <c r="H101" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I101" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>53</v>
       </c>
@@ -3954,8 +4290,11 @@
       <c r="H102" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I102" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>148</v>
       </c>
@@ -3980,8 +4319,11 @@
       <c r="H103" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I103" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>149</v>
       </c>
@@ -4006,8 +4348,11 @@
       <c r="H104" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I104" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>151</v>
       </c>
@@ -4032,8 +4377,11 @@
       <c r="H105" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I105" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>149</v>
       </c>
@@ -4058,8 +4406,11 @@
       <c r="H106" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I106" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>149</v>
       </c>
@@ -4084,8 +4435,11 @@
       <c r="H107" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I107" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>103</v>
       </c>
@@ -4110,8 +4464,11 @@
       <c r="H108" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I108" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -4136,8 +4493,11 @@
       <c r="H109" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I109" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>153</v>
       </c>
@@ -4162,8 +4522,11 @@
       <c r="H110" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I110" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>143</v>
       </c>
@@ -4188,8 +4551,11 @@
       <c r="H111" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I111" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>66</v>
       </c>
@@ -4214,8 +4580,11 @@
       <c r="H112" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I112" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>143</v>
       </c>
@@ -4240,8 +4609,11 @@
       <c r="H113" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I113" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>66</v>
       </c>
@@ -4266,8 +4638,11 @@
       <c r="H114" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I114" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>157</v>
       </c>
@@ -4292,8 +4667,11 @@
       <c r="H115" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I115" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>112</v>
       </c>
@@ -4318,8 +4696,11 @@
       <c r="H116" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I116" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>153</v>
       </c>
@@ -4344,8 +4725,11 @@
       <c r="H117" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I117" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>157</v>
       </c>
@@ -4370,8 +4754,11 @@
       <c r="H118" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I118" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
@@ -4396,8 +4783,11 @@
       <c r="H119" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I119" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>66</v>
       </c>
@@ -4422,8 +4812,11 @@
       <c r="H120" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I120" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>112</v>
       </c>
@@ -4448,8 +4841,11 @@
       <c r="H121" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I121" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
@@ -4474,8 +4870,11 @@
       <c r="H122" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I122" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>153</v>
       </c>
@@ -4500,8 +4899,11 @@
       <c r="H123" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I123" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>82</v>
       </c>
@@ -4526,8 +4928,11 @@
       <c r="H124" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I124" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>112</v>
       </c>
@@ -4552,8 +4957,11 @@
       <c r="H125" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I125" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>159</v>
       </c>
@@ -4578,8 +4986,11 @@
       <c r="H126" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I126" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>53</v>
       </c>
@@ -4604,8 +5015,11 @@
       <c r="H127" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I127" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>53</v>
       </c>
@@ -4630,8 +5044,11 @@
       <c r="H128" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I128" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>66</v>
       </c>
@@ -4656,8 +5073,11 @@
       <c r="H129" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I129" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -4682,8 +5102,11 @@
       <c r="H130" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I130" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
@@ -4708,8 +5131,11 @@
       <c r="H131" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I131" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>164</v>
       </c>
@@ -4734,8 +5160,11 @@
       <c r="H132" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I132" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>164</v>
       </c>
@@ -4760,8 +5189,11 @@
       <c r="H133" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I133" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>50</v>
       </c>
@@ -4786,8 +5218,11 @@
       <c r="H134" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I134" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>46</v>
       </c>
@@ -4812,8 +5247,11 @@
       <c r="H135" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I135" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>145</v>
       </c>
@@ -4838,8 +5276,11 @@
       <c r="H136" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I136" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>145</v>
       </c>
@@ -4864,8 +5305,11 @@
       <c r="H137" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I137" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>149</v>
       </c>
@@ -4890,8 +5334,11 @@
       <c r="H138" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I138" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>149</v>
       </c>
@@ -4916,8 +5363,11 @@
       <c r="H139" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I139" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>159</v>
       </c>
@@ -4942,8 +5392,11 @@
       <c r="H140" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I140" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>159</v>
       </c>
@@ -4968,8 +5421,11 @@
       <c r="H141" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I141" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>107</v>
       </c>
@@ -4994,8 +5450,11 @@
       <c r="H142" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I142" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>107</v>
       </c>
@@ -5020,8 +5479,11 @@
       <c r="H143" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I143" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>107</v>
       </c>
@@ -5046,8 +5508,11 @@
       <c r="H144" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I144" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>107</v>
       </c>
@@ -5072,8 +5537,11 @@
       <c r="H145" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I145" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>107</v>
       </c>
@@ -5098,8 +5566,11 @@
       <c r="H146" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I146" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>107</v>
       </c>
@@ -5124,8 +5595,11 @@
       <c r="H147" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I147" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>159</v>
       </c>
@@ -5150,8 +5624,11 @@
       <c r="H148" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I148" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>75</v>
       </c>
@@ -5176,8 +5653,11 @@
       <c r="H149" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I149" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>92</v>
       </c>
@@ -5202,8 +5682,11 @@
       <c r="H150" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I150" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>92</v>
       </c>
@@ -5228,8 +5711,11 @@
       <c r="H151" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I151" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>128</v>
       </c>
@@ -5254,8 +5740,11 @@
       <c r="H152" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I152" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>128</v>
       </c>
@@ -5280,8 +5769,11 @@
       <c r="H153" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I153" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>164</v>
       </c>
@@ -5306,8 +5798,11 @@
       <c r="H154" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I154" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>59</v>
       </c>
@@ -5332,8 +5827,11 @@
       <c r="H155" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I155" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>175</v>
       </c>
@@ -5358,8 +5856,11 @@
       <c r="H156" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I156" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>175</v>
       </c>
@@ -5384,8 +5885,11 @@
       <c r="H157" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I157" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>175</v>
       </c>
@@ -5410,8 +5914,11 @@
       <c r="H158" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I158" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>175</v>
       </c>
@@ -5436,8 +5943,11 @@
       <c r="H159" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I159" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>178</v>
       </c>
@@ -5462,8 +5972,11 @@
       <c r="H160" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I160" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>178</v>
       </c>
@@ -5488,8 +6001,11 @@
       <c r="H161" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I161" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>182</v>
       </c>
@@ -5514,8 +6030,11 @@
       <c r="H162" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I162" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>182</v>
       </c>
@@ -5540,8 +6059,11 @@
       <c r="H163" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I163" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>184</v>
       </c>
@@ -5566,8 +6088,11 @@
       <c r="H164" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I164" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>184</v>
       </c>
@@ -5592,8 +6117,11 @@
       <c r="H165" s="3" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I165" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>121</v>
       </c>
@@ -5618,8 +6146,11 @@
       <c r="H166" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I166" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>121</v>
       </c>
@@ -5644,8 +6175,11 @@
       <c r="H167" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I167" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>186</v>
       </c>
@@ -5670,8 +6204,11 @@
       <c r="H168" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I168" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>186</v>
       </c>
@@ -5696,8 +6233,11 @@
       <c r="H169" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I169" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>178</v>
       </c>
@@ -5722,8 +6262,11 @@
       <c r="H170" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I170" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>188</v>
       </c>
@@ -5748,8 +6291,11 @@
       <c r="H171" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I171" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>189</v>
       </c>
@@ -5774,8 +6320,11 @@
       <c r="H172" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I172" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>189</v>
       </c>
@@ -5800,8 +6349,11 @@
       <c r="H173" s="3" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I173" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>24</v>
       </c>
@@ -5826,8 +6378,11 @@
       <c r="H174" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I174" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>194</v>
       </c>
@@ -5852,8 +6407,11 @@
       <c r="H175" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I175" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>196</v>
       </c>
@@ -5878,8 +6436,11 @@
       <c r="H176" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I176" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>198</v>
       </c>
@@ -5904,8 +6465,11 @@
       <c r="H177" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I177" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>198</v>
       </c>
@@ -5930,8 +6494,11 @@
       <c r="H178" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I178" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>200</v>
       </c>
@@ -5956,8 +6523,11 @@
       <c r="H179" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I179" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>24</v>
       </c>
@@ -5982,8 +6552,11 @@
       <c r="H180" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I180" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>202</v>
       </c>
@@ -6008,8 +6581,11 @@
       <c r="H181" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I181" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>202</v>
       </c>
@@ -6034,8 +6610,11 @@
       <c r="H182" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I182" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>202</v>
       </c>
@@ -6060,8 +6639,11 @@
       <c r="H183" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I183" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>202</v>
       </c>
@@ -6086,8 +6668,11 @@
       <c r="H184" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I184" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>42</v>
       </c>
@@ -6112,8 +6697,11 @@
       <c r="H185" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I185" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>207</v>
       </c>
@@ -6138,8 +6726,11 @@
       <c r="H186" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I186" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>36</v>
       </c>
@@ -6164,8 +6755,11 @@
       <c r="H187" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I187" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>210</v>
       </c>
@@ -6190,8 +6784,11 @@
       <c r="H188" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I188" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>211</v>
       </c>
@@ -6216,8 +6813,11 @@
       <c r="H189" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I189" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>36</v>
       </c>
@@ -6242,8 +6842,11 @@
       <c r="H190" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I190" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>207</v>
       </c>
@@ -6268,8 +6871,11 @@
       <c r="H191" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I191" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>36</v>
       </c>
@@ -6294,8 +6900,11 @@
       <c r="H192" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I192" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>207</v>
       </c>
@@ -6320,8 +6929,11 @@
       <c r="H193" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I193" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>214</v>
       </c>
@@ -6346,8 +6958,11 @@
       <c r="H194" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I194" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>36</v>
       </c>
@@ -6372,8 +6987,11 @@
       <c r="H195" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I195" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>214</v>
       </c>
@@ -6398,8 +7016,11 @@
       <c r="H196" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I196" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>215</v>
       </c>
@@ -6424,8 +7045,11 @@
       <c r="H197" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I197" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>42</v>
       </c>
@@ -6450,8 +7074,11 @@
       <c r="H198" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I198" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>216</v>
       </c>
@@ -6476,8 +7103,11 @@
       <c r="H199" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I199" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>207</v>
       </c>
@@ -6502,8 +7132,11 @@
       <c r="H200" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I200" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>36</v>
       </c>
@@ -6528,8 +7161,11 @@
       <c r="H201" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I201" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>36</v>
       </c>
@@ -6554,8 +7190,11 @@
       <c r="H202" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I202" s="3" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>219</v>
       </c>
@@ -6580,8 +7219,11 @@
       <c r="H203" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I203" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>219</v>
       </c>
@@ -6606,8 +7248,11 @@
       <c r="H204" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I204" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>24</v>
       </c>
@@ -6632,8 +7277,11 @@
       <c r="H205" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I205" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>24</v>
       </c>
@@ -6658,8 +7306,11 @@
       <c r="H206" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I206" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>194</v>
       </c>
@@ -6684,8 +7335,11 @@
       <c r="H207" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I207" s="3" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>224</v>
       </c>
@@ -6710,8 +7364,11 @@
       <c r="H208" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I208" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>224</v>
       </c>
@@ -6736,8 +7393,11 @@
       <c r="H209" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I209" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>227</v>
       </c>
@@ -6762,8 +7422,11 @@
       <c r="H210" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I210" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>227</v>
       </c>
@@ -6788,8 +7451,11 @@
       <c r="H211" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I211" s="3" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>230</v>
       </c>
@@ -6814,8 +7480,11 @@
       <c r="H212" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I212" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>230</v>
       </c>
@@ -6840,8 +7509,11 @@
       <c r="H213" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I213" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>8</v>
       </c>
@@ -6866,8 +7538,11 @@
       <c r="H214" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I214" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>100</v>
       </c>
@@ -6892,8 +7567,11 @@
       <c r="H215" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I215" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>8</v>
       </c>
@@ -6918,8 +7596,11 @@
       <c r="H216" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I216" s="3" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>46</v>
       </c>
@@ -6944,8 +7625,11 @@
       <c r="H217" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I217" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>236</v>
       </c>
@@ -6970,8 +7654,11 @@
       <c r="H218" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I218" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>237</v>
       </c>
@@ -6996,8 +7683,11 @@
       <c r="H219" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I219" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>153</v>
       </c>
@@ -7022,8 +7712,11 @@
       <c r="H220" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I220" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>238</v>
       </c>
@@ -7048,8 +7741,11 @@
       <c r="H221" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I221" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>91</v>
       </c>
@@ -7074,8 +7770,11 @@
       <c r="H222" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I222" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>153</v>
       </c>
@@ -7100,8 +7799,11 @@
       <c r="H223" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I223" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>240</v>
       </c>
@@ -7126,8 +7828,11 @@
       <c r="H224" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I224" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>125</v>
       </c>
@@ -7152,8 +7857,11 @@
       <c r="H225" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I225" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>131</v>
       </c>
@@ -7178,8 +7886,11 @@
       <c r="H226" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I226" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>240</v>
       </c>
@@ -7204,8 +7915,11 @@
       <c r="H227" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I227" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>125</v>
       </c>
@@ -7230,8 +7944,11 @@
       <c r="H228" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I228" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>131</v>
       </c>
@@ -7256,8 +7973,11 @@
       <c r="H229" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I229" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>242</v>
       </c>
@@ -7282,8 +8002,11 @@
       <c r="H230" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I230" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>243</v>
       </c>
@@ -7308,8 +8031,11 @@
       <c r="H231" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I231" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>164</v>
       </c>
@@ -7334,8 +8060,11 @@
       <c r="H232" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I232" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>245</v>
       </c>
@@ -7360,8 +8089,11 @@
       <c r="H233" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I233" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>246</v>
       </c>
@@ -7386,8 +8118,11 @@
       <c r="H234" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I234" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>164</v>
       </c>
@@ -7412,8 +8147,11 @@
       <c r="H235" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I235" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
@@ -7438,8 +8176,11 @@
       <c r="H236" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I236" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
@@ -7464,8 +8205,11 @@
       <c r="H237" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I237" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>149</v>
       </c>
@@ -7490,8 +8234,11 @@
       <c r="H238" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I238" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>80</v>
       </c>
@@ -7516,8 +8263,11 @@
       <c r="H239" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I239" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>80</v>
       </c>
@@ -7542,8 +8292,11 @@
       <c r="H240" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I240" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>92</v>
       </c>
@@ -7568,8 +8321,11 @@
       <c r="H241" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I241" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>149</v>
       </c>
@@ -7594,8 +8350,11 @@
       <c r="H242" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I242" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>53</v>
       </c>
@@ -7620,8 +8379,11 @@
       <c r="H243" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I243" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>159</v>
       </c>
@@ -7646,8 +8408,11 @@
       <c r="H244" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I244" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>59</v>
       </c>
@@ -7672,8 +8437,11 @@
       <c r="H245" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I245" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>124</v>
       </c>
@@ -7698,8 +8466,11 @@
       <c r="H246" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I246" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>159</v>
       </c>
@@ -7724,8 +8495,11 @@
       <c r="H247" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I247" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>145</v>
       </c>
@@ -7750,8 +8524,11 @@
       <c r="H248" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I248" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>256</v>
       </c>
@@ -7776,8 +8553,11 @@
       <c r="H249" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I249" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>257</v>
       </c>
@@ -7802,8 +8582,11 @@
       <c r="H250" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I250" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>257</v>
       </c>
@@ -7828,8 +8611,11 @@
       <c r="H251" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I251" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>145</v>
       </c>
@@ -7854,8 +8640,11 @@
       <c r="H252" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I252" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>103</v>
       </c>
@@ -7880,8 +8669,11 @@
       <c r="H253" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I253" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>105</v>
       </c>
@@ -7906,8 +8698,11 @@
       <c r="H254" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I254" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>103</v>
       </c>
@@ -7932,8 +8727,11 @@
       <c r="H255" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I255" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>105</v>
       </c>
@@ -7958,8 +8756,11 @@
       <c r="H256" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I256" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>110</v>
       </c>
@@ -7984,8 +8785,11 @@
       <c r="H257" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I257" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>143</v>
       </c>
@@ -8010,8 +8814,11 @@
       <c r="H258" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I258" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>105</v>
       </c>
@@ -8036,8 +8843,11 @@
       <c r="H259" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I259" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>110</v>
       </c>
@@ -8062,8 +8872,11 @@
       <c r="H260" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I260" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>143</v>
       </c>
@@ -8088,8 +8901,11 @@
       <c r="H261" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I261" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>126</v>
       </c>
@@ -8114,8 +8930,11 @@
       <c r="H262" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I262" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>110</v>
       </c>
@@ -8140,8 +8959,11 @@
       <c r="H263" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I263" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>124</v>
       </c>
@@ -8166,8 +8988,11 @@
       <c r="H264" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I264" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>108</v>
       </c>
@@ -8192,8 +9017,11 @@
       <c r="H265" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I265" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>262</v>
       </c>
@@ -8218,8 +9046,11 @@
       <c r="H266" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I266" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>55</v>
       </c>
@@ -8244,8 +9075,11 @@
       <c r="H267" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I267" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>265</v>
       </c>
@@ -8270,8 +9104,11 @@
       <c r="H268" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I268" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>111</v>
       </c>
@@ -8296,8 +9133,11 @@
       <c r="H269" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I269" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>53</v>
       </c>
@@ -8322,8 +9162,11 @@
       <c r="H270" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I270" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>118</v>
       </c>
@@ -8348,8 +9191,11 @@
       <c r="H271" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I271" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>111</v>
       </c>
@@ -8374,8 +9220,11 @@
       <c r="H272" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I272" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>149</v>
       </c>
@@ -8400,8 +9249,11 @@
       <c r="H273" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I273" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>118</v>
       </c>
@@ -8426,8 +9278,11 @@
       <c r="H274" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I274" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>111</v>
       </c>
@@ -8452,8 +9307,11 @@
       <c r="H275" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I275" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>103</v>
       </c>
@@ -8478,8 +9336,11 @@
       <c r="H276" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I276" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>118</v>
       </c>
@@ -8504,8 +9365,11 @@
       <c r="H277" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I277" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>111</v>
       </c>
@@ -8530,8 +9394,11 @@
       <c r="H278" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I278" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>53</v>
       </c>
@@ -8556,8 +9423,11 @@
       <c r="H279" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I279" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>265</v>
       </c>
@@ -8582,8 +9452,11 @@
       <c r="H280" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I280" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>118</v>
       </c>
@@ -8608,8 +9481,11 @@
       <c r="H281" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I281" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>55</v>
       </c>
@@ -8634,8 +9510,11 @@
       <c r="H282" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I282" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>111</v>
       </c>
@@ -8660,8 +9539,11 @@
       <c r="H283" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I283" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>265</v>
       </c>
@@ -8686,8 +9568,11 @@
       <c r="H284" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I284" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>128</v>
       </c>
@@ -8712,8 +9597,11 @@
       <c r="H285" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I285" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>128</v>
       </c>
@@ -8738,8 +9626,11 @@
       <c r="H286" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I286" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>59</v>
       </c>
@@ -8764,8 +9655,11 @@
       <c r="H287" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I287" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>128</v>
       </c>
@@ -8790,8 +9684,11 @@
       <c r="H288" s="3" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I288" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>145</v>
       </c>
@@ -8816,8 +9713,11 @@
       <c r="H289" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I289" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>145</v>
       </c>
@@ -8842,8 +9742,11 @@
       <c r="H290" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I290" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>268</v>
       </c>
@@ -8868,8 +9771,11 @@
       <c r="H291" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I291" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>269</v>
       </c>
@@ -8894,8 +9800,11 @@
       <c r="H292" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I292" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>149</v>
       </c>
@@ -8920,8 +9829,11 @@
       <c r="H293" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I293" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>149</v>
       </c>
@@ -8946,8 +9858,11 @@
       <c r="H294" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I294" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>68</v>
       </c>
@@ -8972,8 +9887,11 @@
       <c r="H295" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I295" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>68</v>
       </c>
@@ -8998,8 +9916,11 @@
       <c r="H296" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I296" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>133</v>
       </c>
@@ -9024,8 +9945,11 @@
       <c r="H297" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I297" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>80</v>
       </c>
@@ -9050,8 +9974,11 @@
       <c r="H298" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I298" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>257</v>
       </c>
@@ -9076,8 +10003,11 @@
       <c r="H299" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I299" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>269</v>
       </c>
@@ -9102,8 +10032,11 @@
       <c r="H300" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I300" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>268</v>
       </c>
@@ -9128,8 +10061,11 @@
       <c r="H301" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="302" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I301" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>257</v>
       </c>
@@ -9154,8 +10090,11 @@
       <c r="H302" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="303" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I302" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>107</v>
       </c>
@@ -9180,8 +10119,11 @@
       <c r="H303" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I303" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>118</v>
       </c>
@@ -9206,8 +10148,11 @@
       <c r="H304" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="305" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I304" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>268</v>
       </c>
@@ -9232,8 +10177,11 @@
       <c r="H305" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="306" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I305" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>107</v>
       </c>
@@ -9258,8 +10206,11 @@
       <c r="H306" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="307" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I306" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>159</v>
       </c>
@@ -9284,8 +10235,11 @@
       <c r="H307" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="308" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I307" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>118</v>
       </c>
@@ -9310,8 +10264,11 @@
       <c r="H308" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I308" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>268</v>
       </c>
@@ -9336,8 +10293,11 @@
       <c r="H309" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I309" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>159</v>
       </c>
@@ -9362,8 +10322,11 @@
       <c r="H310" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I310" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>159</v>
       </c>
@@ -9388,8 +10351,11 @@
       <c r="H311" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="312" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I311" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>268</v>
       </c>
@@ -9414,8 +10380,11 @@
       <c r="H312" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="313" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I312" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>118</v>
       </c>
@@ -9440,8 +10409,11 @@
       <c r="H313" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I313" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>159</v>
       </c>
@@ -9466,8 +10438,11 @@
       <c r="H314" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I314" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>50</v>
       </c>
@@ -9492,8 +10467,11 @@
       <c r="H315" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I315" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>50</v>
       </c>
@@ -9518,8 +10496,11 @@
       <c r="H316" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I316" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>131</v>
       </c>
@@ -9544,8 +10525,11 @@
       <c r="H317" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="318" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I317" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>131</v>
       </c>
@@ -9570,8 +10554,11 @@
       <c r="H318" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="319" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I318" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>46</v>
       </c>
@@ -9596,8 +10583,11 @@
       <c r="H319" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I319" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>46</v>
       </c>
@@ -9622,8 +10612,11 @@
       <c r="H320" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I320" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>143</v>
       </c>
@@ -9648,8 +10641,11 @@
       <c r="H321" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I321" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>143</v>
       </c>
@@ -9674,8 +10670,11 @@
       <c r="H322" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I322" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>164</v>
       </c>
@@ -9700,8 +10699,11 @@
       <c r="H323" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I323" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>164</v>
       </c>
@@ -9726,8 +10728,11 @@
       <c r="H324" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I324" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>135</v>
       </c>
@@ -9752,8 +10757,11 @@
       <c r="H325" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I325" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>135</v>
       </c>
@@ -9778,8 +10786,11 @@
       <c r="H326" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I326" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>133</v>
       </c>
@@ -9804,8 +10815,11 @@
       <c r="H327" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I327" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>256</v>
       </c>
@@ -9830,8 +10844,11 @@
       <c r="H328" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I328" s="3" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>276</v>
       </c>
@@ -9856,8 +10873,11 @@
       <c r="H329" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I329" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>278</v>
       </c>
@@ -9882,8 +10902,11 @@
       <c r="H330" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I330" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>276</v>
       </c>
@@ -9908,8 +10931,11 @@
       <c r="H331" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I331" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>280</v>
       </c>
@@ -9934,8 +10960,11 @@
       <c r="H332" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I332" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>278</v>
       </c>
@@ -9960,8 +10989,11 @@
       <c r="H333" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I333" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>280</v>
       </c>
@@ -9986,8 +11018,11 @@
       <c r="H334" s="3" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I334" s="3" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>281</v>
       </c>
@@ -10012,8 +11047,11 @@
       <c r="H335" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I335" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>281</v>
       </c>
@@ -10038,8 +11076,11 @@
       <c r="H336" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I336" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>285</v>
       </c>
@@ -10064,8 +11105,11 @@
       <c r="H337" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="338" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I337" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>286</v>
       </c>
@@ -10090,8 +11134,11 @@
       <c r="H338" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I338" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>36</v>
       </c>
@@ -10116,8 +11163,11 @@
       <c r="H339" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I339" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>121</v>
       </c>
@@ -10142,8 +11192,11 @@
       <c r="H340" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I340" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>121</v>
       </c>
@@ -10168,8 +11221,11 @@
       <c r="H341" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I341" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>186</v>
       </c>
@@ -10194,8 +11250,11 @@
       <c r="H342" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I342" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>186</v>
       </c>
@@ -10220,8 +11279,11 @@
       <c r="H343" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I343" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>175</v>
       </c>
@@ -10246,8 +11308,11 @@
       <c r="H344" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I344" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>175</v>
       </c>
@@ -10272,8 +11337,11 @@
       <c r="H345" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I345" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>178</v>
       </c>
@@ -10298,8 +11366,11 @@
       <c r="H346" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I346" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>188</v>
       </c>
@@ -10324,8 +11395,11 @@
       <c r="H347" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I347" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>292</v>
       </c>
@@ -10350,8 +11424,11 @@
       <c r="H348" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I348" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>292</v>
       </c>
@@ -10376,8 +11453,11 @@
       <c r="H349" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="350" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I349" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>182</v>
       </c>
@@ -10402,8 +11482,11 @@
       <c r="H350" s="3" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I350" s="3" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>182</v>
       </c>
@@ -10428,8 +11511,12 @@
       <c r="H351" s="3" t="s">
         <v>218</v>
       </c>
+      <c r="I351" s="3" t="s">
+        <v>299</v>
+      </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Pake Dataset/dataset/Data.xlsx
+++ b/Pake Dataset/dataset/Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\skripsi\Pake Dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA01130D-E4B0-49F1-AD52-3745E316F614}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02B767C2-6BD8-4144-B9C0-9CDDAE052E76}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3159" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="337">
   <si>
     <t>Nama Dosen</t>
   </si>
@@ -934,13 +934,115 @@
   </si>
   <si>
     <t>IK</t>
+  </si>
+  <si>
+    <t>Tipe</t>
+  </si>
+  <si>
+    <t>Teori</t>
+  </si>
+  <si>
+    <t>Lab</t>
+  </si>
+  <si>
+    <t>CE 551 Applied Computer Networking 1 (Lab)</t>
+  </si>
+  <si>
+    <t>CE 751 Applied Computer Networking 3 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 110 Introduction to Multimedia Tec (Lab)</t>
+  </si>
+  <si>
+    <t>IF 300 Pengantar Teknologi Internet (Lab)</t>
+  </si>
+  <si>
+    <t>IF 301 Database Systems (Lab)</t>
+  </si>
+  <si>
+    <t>IF 501 Keamanan Siber 1 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 502 Perancangan&amp; Peng Game 1 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 520 Grafika Komputer dan Animasi (Lab)</t>
+  </si>
+  <si>
+    <t>IF 701 Cyber Security 3 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 702 Game Programming &amp; Dev 3 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 733 Cross - Platform Mobile Progra (Lab)</t>
+  </si>
+  <si>
+    <t>IS 544 Advanced Database (Lab)</t>
+  </si>
+  <si>
+    <t>IS 557 Big Data Analytics 1 (Lab)</t>
+  </si>
+  <si>
+    <t>IS 580 Enterprise Application and Sys (Lab)</t>
+  </si>
+  <si>
+    <t>IS 747 Database Administration 2 (Lab)</t>
+  </si>
+  <si>
+    <t>IS 755 Big Data Analytics 3 (Lab)</t>
+  </si>
+  <si>
+    <t>IS 782 Enterprise Application and Sys (Lab)</t>
+  </si>
+  <si>
+    <t>CE 441 Computer Network (Lab)</t>
+  </si>
+  <si>
+    <t>CE 651 Applied Computer Networking 2 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 210 Algorithm and Data Structure (Lab)</t>
+  </si>
+  <si>
+    <t>IF 402 Object Oriented Programming (Lab)</t>
+  </si>
+  <si>
+    <t>IF 430 Web Programming (Lab)</t>
+  </si>
+  <si>
+    <t>IF 601 Keamanan Siber 2 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 602 Perancangan &amp; Peng Game 2 (Lab)</t>
+  </si>
+  <si>
+    <t>IF 633 Mobile Application Programming (Lab)</t>
+  </si>
+  <si>
+    <t>IF 654 Pembelajaran Mesin (Lab)</t>
+  </si>
+  <si>
+    <t>IS 645 Database Administration 1 (Lab)</t>
+  </si>
+  <si>
+    <t>IS 646 Database Application Developme (Lab)</t>
+  </si>
+  <si>
+    <t>IS 655 Big Data Analytics 2 (Lab)</t>
+  </si>
+  <si>
+    <t>IS 681 Enterprise Application and Sys (Lab)</t>
+  </si>
+  <si>
+    <t>Sks</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -958,6 +1060,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -986,7 +1094,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -1022,11 +1130,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1038,6 +1198,15 @@
     <xf numFmtId="49" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1318,16 +1487,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I351"/>
+  <dimension ref="A1:K351"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J3" sqref="J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="33.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.140625" bestFit="1" customWidth="1"/>
@@ -1336,7 +1505,7 @@
     <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1364,8 +1533,14 @@
       <c r="I1" s="1" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J1" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="K1" s="10" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>8</v>
       </c>
@@ -1390,11 +1565,17 @@
       <c r="H2" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="7" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J2" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K2" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>8</v>
       </c>
@@ -1422,8 +1603,14 @@
       <c r="I3" s="3" t="s">
         <v>295</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J3" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K3" s="11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>19</v>
       </c>
@@ -1451,8 +1638,12 @@
       <c r="I4" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K4" s="11"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>24</v>
       </c>
@@ -1480,8 +1671,12 @@
       <c r="I5" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J5" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K5" s="11"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>24</v>
       </c>
@@ -1509,8 +1704,12 @@
       <c r="I6" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J6" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K6" s="11"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>19</v>
       </c>
@@ -1538,8 +1737,12 @@
       <c r="I7" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J7" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K7" s="11"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>19</v>
       </c>
@@ -1567,8 +1770,12 @@
       <c r="I8" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J8" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K8" s="11"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
@@ -1596,13 +1803,17 @@
       <c r="I9" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J9" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K9" s="11"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>37</v>
+        <v>306</v>
       </c>
       <c r="C10" s="3" t="s">
         <v>40</v>
@@ -1625,8 +1836,12 @@
       <c r="I10" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J10" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K10" s="11"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>42</v>
       </c>
@@ -1654,13 +1869,17 @@
       <c r="I11" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J11" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K11" s="11"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>42</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>43</v>
+        <v>307</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>40</v>
@@ -1683,8 +1902,12 @@
       <c r="I12" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J12" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K12" s="11"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>46</v>
       </c>
@@ -1712,8 +1935,12 @@
       <c r="I13" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J13" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K13" s="11"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>46</v>
       </c>
@@ -1741,8 +1968,12 @@
       <c r="I14" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J14" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K14" s="11"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>50</v>
       </c>
@@ -1770,8 +2001,12 @@
       <c r="I15" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J15" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K15" s="11"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>52</v>
       </c>
@@ -1799,8 +2034,12 @@
       <c r="I16" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J16" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K16" s="11"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>53</v>
       </c>
@@ -1828,8 +2067,12 @@
       <c r="I17" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J17" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K17" s="11"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>55</v>
       </c>
@@ -1857,8 +2100,12 @@
       <c r="I18" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J18" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K18" s="11"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>52</v>
       </c>
@@ -1886,8 +2133,12 @@
       <c r="I19" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J19" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K19" s="11"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>59</v>
       </c>
@@ -1915,8 +2166,12 @@
       <c r="I20" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J20" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K20" s="11"/>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>59</v>
       </c>
@@ -1944,8 +2199,12 @@
       <c r="I21" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J21" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K21" s="11"/>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>55</v>
       </c>
@@ -1973,8 +2232,12 @@
       <c r="I22" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J22" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K22" s="11"/>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -2002,8 +2265,12 @@
       <c r="I23" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J23" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K23" s="11"/>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>68</v>
       </c>
@@ -2031,8 +2298,12 @@
       <c r="I24" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J24" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K24" s="11"/>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>71</v>
       </c>
@@ -2060,13 +2331,17 @@
       <c r="I25" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J25" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K25" s="11"/>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>74</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>72</v>
@@ -2089,8 +2364,12 @@
       <c r="I26" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J26" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K26" s="11"/>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>75</v>
       </c>
@@ -2118,8 +2397,12 @@
       <c r="I27" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J27" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K27" s="11"/>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>77</v>
       </c>
@@ -2147,8 +2430,12 @@
       <c r="I28" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J28" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K28" s="11"/>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>79</v>
       </c>
@@ -2176,8 +2463,12 @@
       <c r="I29" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J29" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K29" s="11"/>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>80</v>
       </c>
@@ -2205,13 +2496,17 @@
       <c r="I30" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J30" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K30" s="11"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>83</v>
@@ -2234,13 +2529,17 @@
       <c r="I31" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J31" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" s="11"/>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>83</v>
@@ -2263,8 +2562,12 @@
       <c r="I32" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J32" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K32" s="11"/>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>80</v>
       </c>
@@ -2292,8 +2595,12 @@
       <c r="I33" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J33" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K33" s="11"/>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>86</v>
       </c>
@@ -2321,8 +2628,12 @@
       <c r="I34" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J34" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K34" s="11"/>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>89</v>
       </c>
@@ -2350,8 +2661,12 @@
       <c r="I35" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J35" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K35" s="11"/>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>75</v>
       </c>
@@ -2379,8 +2694,12 @@
       <c r="I36" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J36" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K36" s="11"/>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>79</v>
       </c>
@@ -2408,8 +2727,12 @@
       <c r="I37" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J37" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K37" s="11"/>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>91</v>
       </c>
@@ -2437,8 +2760,12 @@
       <c r="I38" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J38" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>92</v>
       </c>
@@ -2466,13 +2793,17 @@
       <c r="I39" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J39" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K39" s="11"/>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>94</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>95</v>
@@ -2495,13 +2826,17 @@
       <c r="I40" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J40" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K40" s="11"/>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>97</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>69</v>
+        <v>308</v>
       </c>
       <c r="C41" s="3" t="s">
         <v>95</v>
@@ -2524,8 +2859,12 @@
       <c r="I41" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J41" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K41" s="11"/>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>50</v>
       </c>
@@ -2553,8 +2892,12 @@
       <c r="I42" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J42" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K42" s="11"/>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>52</v>
       </c>
@@ -2582,8 +2925,12 @@
       <c r="I43" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J43" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K43" s="11"/>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>100</v>
       </c>
@@ -2611,8 +2958,12 @@
       <c r="I44" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J44" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K44" s="11"/>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>100</v>
       </c>
@@ -2640,8 +2991,12 @@
       <c r="I45" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J45" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K45" s="11"/>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>100</v>
       </c>
@@ -2669,8 +3024,12 @@
       <c r="I46" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J46" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K46" s="11"/>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="3" t="s">
         <v>52</v>
       </c>
@@ -2698,8 +3057,12 @@
       <c r="I47" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J47" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K47" s="11"/>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>103</v>
       </c>
@@ -2727,13 +3090,17 @@
       <c r="I48" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K48" s="11"/>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C49" s="3" t="s">
         <v>40</v>
@@ -2756,8 +3123,12 @@
       <c r="I49" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K49" s="11"/>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>107</v>
       </c>
@@ -2785,8 +3156,12 @@
       <c r="I50" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J50" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K50" s="11"/>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="3" t="s">
         <v>108</v>
       </c>
@@ -2814,8 +3189,12 @@
       <c r="I51" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J51" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K51" s="11"/>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="3" t="s">
         <v>109</v>
       </c>
@@ -2843,8 +3222,12 @@
       <c r="I52" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J52" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K52" s="11"/>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="3" t="s">
         <v>107</v>
       </c>
@@ -2872,13 +3255,17 @@
       <c r="I53" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J53" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K53" s="11"/>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C54" s="3" t="s">
         <v>78</v>
@@ -2901,13 +3288,17 @@
       <c r="I54" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J54" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K54" s="11"/>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C55" s="3" t="s">
         <v>78</v>
@@ -2930,8 +3321,12 @@
       <c r="I55" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J55" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="3" t="s">
         <v>53</v>
       </c>
@@ -2959,13 +3354,17 @@
       <c r="I56" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J56" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K56" s="11"/>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>83</v>
@@ -2988,13 +3387,17 @@
       <c r="I57" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J57" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K57" s="11"/>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C58" s="3" t="s">
         <v>83</v>
@@ -3017,8 +3420,12 @@
       <c r="I58" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J58" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K58" s="11"/>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="3" t="s">
         <v>113</v>
       </c>
@@ -3046,13 +3453,17 @@
       <c r="I59" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K59" s="11"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="3" t="s">
         <v>115</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C60" s="3" t="s">
         <v>87</v>
@@ -3075,13 +3486,17 @@
       <c r="I60" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K60" s="11"/>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C61" s="3" t="s">
         <v>87</v>
@@ -3104,8 +3519,12 @@
       <c r="I61" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J61" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K61" s="11"/>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="3" t="s">
         <v>113</v>
       </c>
@@ -3133,13 +3552,17 @@
       <c r="I62" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J62" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K62" s="11"/>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C63" s="3" t="s">
         <v>90</v>
@@ -3162,13 +3585,17 @@
       <c r="I63" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J63" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K63" s="11"/>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>104</v>
+        <v>309</v>
       </c>
       <c r="C64" s="3" t="s">
         <v>90</v>
@@ -3191,13 +3618,17 @@
       <c r="I64" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J64" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K64" s="11"/>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C65" s="3" t="s">
         <v>40</v>
@@ -3220,13 +3651,17 @@
       <c r="I65" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J65" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K65" s="11"/>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C66" s="3" t="s">
         <v>40</v>
@@ -3249,8 +3684,12 @@
       <c r="I66" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J66" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K66" s="11"/>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>121</v>
       </c>
@@ -3278,13 +3717,17 @@
       <c r="I67" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J67" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K67" s="11"/>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C68" s="3" t="s">
         <v>72</v>
@@ -3307,13 +3750,17 @@
       <c r="I68" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J68" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K68" s="11"/>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>109</v>
       </c>
       <c r="B69" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>72</v>
@@ -3336,8 +3783,12 @@
       <c r="I69" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J69" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K69" s="11"/>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="3" t="s">
         <v>121</v>
       </c>
@@ -3365,13 +3816,17 @@
       <c r="I70" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J70" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K70" s="11"/>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C71" s="3" t="s">
         <v>78</v>
@@ -3394,13 +3849,17 @@
       <c r="I71" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J71" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K71" s="11"/>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="3" t="s">
         <v>120</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>78</v>
@@ -3423,8 +3882,12 @@
       <c r="I72" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J72" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K72" s="11"/>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="3" t="s">
         <v>121</v>
       </c>
@@ -3452,13 +3915,17 @@
       <c r="I73" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J73" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K73" s="11"/>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>122</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C74" s="3" t="s">
         <v>83</v>
@@ -3481,13 +3948,17 @@
       <c r="I74" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J74" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>123</v>
       </c>
       <c r="B75" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C75" s="3" t="s">
         <v>83</v>
@@ -3510,8 +3981,12 @@
       <c r="I75" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J75" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K75" s="11"/>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>124</v>
       </c>
@@ -3539,13 +4014,17 @@
       <c r="I76" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J76" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K76" s="11"/>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C77" s="3" t="s">
         <v>87</v>
@@ -3568,13 +4047,17 @@
       <c r="I77" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J77" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K77" s="11"/>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C78" s="3" t="s">
         <v>87</v>
@@ -3597,8 +4080,12 @@
       <c r="I78" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J78" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K78" s="11"/>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="3" t="s">
         <v>124</v>
       </c>
@@ -3626,13 +4113,17 @@
       <c r="I79" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J79" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K79" s="11"/>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>85</v>
       </c>
       <c r="B80" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C80" s="3" t="s">
         <v>90</v>
@@ -3655,13 +4146,17 @@
       <c r="I80" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J80" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K80" s="11"/>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="3" t="s">
         <v>127</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>119</v>
+        <v>310</v>
       </c>
       <c r="C81" s="3" t="s">
         <v>90</v>
@@ -3684,8 +4179,12 @@
       <c r="I81" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J81" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K81" s="11"/>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="3" t="s">
         <v>128</v>
       </c>
@@ -3713,8 +4212,12 @@
       <c r="I82" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J82" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K82" s="11"/>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="3" t="s">
         <v>131</v>
       </c>
@@ -3742,8 +4245,12 @@
       <c r="I83" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J83" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K83" s="11"/>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="3" t="s">
         <v>59</v>
       </c>
@@ -3771,8 +4278,12 @@
       <c r="I84" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J84" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K84" s="11"/>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="3" t="s">
         <v>113</v>
       </c>
@@ -3800,8 +4311,12 @@
       <c r="I85" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J85" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K85" s="11"/>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>113</v>
       </c>
@@ -3829,8 +4344,12 @@
       <c r="I86" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J86" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K86" s="11"/>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="3" t="s">
         <v>133</v>
       </c>
@@ -3858,8 +4377,12 @@
       <c r="I87" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J87" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K87" s="11"/>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="3" t="s">
         <v>135</v>
       </c>
@@ -3887,8 +4410,12 @@
       <c r="I88" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J88" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K88" s="11"/>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="3" t="s">
         <v>135</v>
       </c>
@@ -3916,8 +4443,12 @@
       <c r="I89" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J89" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>138</v>
       </c>
@@ -3945,8 +4476,12 @@
       <c r="I90" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J90" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K90" s="11"/>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>135</v>
       </c>
@@ -3974,8 +4509,12 @@
       <c r="I91" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J91" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K91" s="11"/>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>68</v>
       </c>
@@ -4003,8 +4542,12 @@
       <c r="I92" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J92" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K92" s="11"/>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>140</v>
       </c>
@@ -4032,8 +4575,12 @@
       <c r="I93" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J93" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K93" s="11"/>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>140</v>
       </c>
@@ -4061,8 +4608,12 @@
       <c r="I94" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J94" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K94" s="11"/>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="3" t="s">
         <v>141</v>
       </c>
@@ -4090,8 +4641,12 @@
       <c r="I95" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J95" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K95" s="11"/>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="3" t="s">
         <v>141</v>
       </c>
@@ -4119,8 +4674,12 @@
       <c r="I96" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J96" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K96" s="11"/>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="3" t="s">
         <v>143</v>
       </c>
@@ -4148,8 +4707,12 @@
       <c r="I97" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J97" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K97" s="11"/>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="3" t="s">
         <v>124</v>
       </c>
@@ -4177,8 +4740,12 @@
       <c r="I98" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J98" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K98" s="11"/>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>59</v>
       </c>
@@ -4206,8 +4773,12 @@
       <c r="I99" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J99" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K99" s="11"/>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>124</v>
       </c>
@@ -4235,8 +4806,12 @@
       <c r="I100" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J100" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K100" s="11"/>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="3" t="s">
         <v>145</v>
       </c>
@@ -4264,13 +4839,17 @@
       <c r="I101" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J101" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K101" s="11"/>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="3" t="s">
         <v>53</v>
       </c>
       <c r="B102" s="4" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="C102" s="3" t="s">
         <v>40</v>
@@ -4293,13 +4872,17 @@
       <c r="I102" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J102" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K102" s="11"/>
+    </row>
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="3" t="s">
         <v>148</v>
       </c>
       <c r="B103" s="4" t="s">
-        <v>146</v>
+        <v>311</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>40</v>
@@ -4322,8 +4905,12 @@
       <c r="I103" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J103" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K103" s="11"/>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="3" t="s">
         <v>149</v>
       </c>
@@ -4351,13 +4938,17 @@
       <c r="I104" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J104" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K104" s="11"/>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="3" t="s">
         <v>151</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>150</v>
+        <v>312</v>
       </c>
       <c r="C105" s="3" t="s">
         <v>40</v>
@@ -4380,8 +4971,12 @@
       <c r="I105" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J105" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K105" s="11"/>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="3" t="s">
         <v>149</v>
       </c>
@@ -4409,8 +5004,12 @@
       <c r="I106" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J106" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K106" s="11"/>
+    </row>
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="3" t="s">
         <v>149</v>
       </c>
@@ -4438,8 +5037,12 @@
       <c r="I107" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J107" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K107" s="11"/>
+    </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="3" t="s">
         <v>103</v>
       </c>
@@ -4467,8 +5070,12 @@
       <c r="I108" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J108" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K108" s="11"/>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>103</v>
       </c>
@@ -4496,8 +5103,12 @@
       <c r="I109" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J109" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K109" s="11"/>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="3" t="s">
         <v>153</v>
       </c>
@@ -4525,8 +5136,12 @@
       <c r="I110" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J110" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K110" s="11"/>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>143</v>
       </c>
@@ -4554,8 +5169,12 @@
       <c r="I111" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J111" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K111" s="11"/>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>66</v>
       </c>
@@ -4583,8 +5202,12 @@
       <c r="I112" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J112" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K112" s="11"/>
+    </row>
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>143</v>
       </c>
@@ -4612,8 +5235,12 @@
       <c r="I113" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J113" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K113" s="11"/>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="3" t="s">
         <v>66</v>
       </c>
@@ -4641,13 +5268,17 @@
       <c r="I114" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J114" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K114" s="11"/>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C115" s="3" t="s">
         <v>40</v>
@@ -4670,13 +5301,17 @@
       <c r="I115" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J115" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K115" s="11"/>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B116" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C116" s="3" t="s">
         <v>40</v>
@@ -4699,8 +5334,12 @@
       <c r="I116" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J116" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K116" s="11"/>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="3" t="s">
         <v>153</v>
       </c>
@@ -4728,13 +5367,17 @@
       <c r="I117" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J117" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K117" s="11"/>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>157</v>
       </c>
       <c r="B118" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C118" s="3" t="s">
         <v>72</v>
@@ -4757,13 +5400,17 @@
       <c r="I118" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J118" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B119" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C119" s="3" t="s">
         <v>72</v>
@@ -4786,8 +5433,12 @@
       <c r="I119" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J119" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K119" s="11"/>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>66</v>
       </c>
@@ -4815,13 +5466,17 @@
       <c r="I120" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J120" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K120" s="11"/>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B121" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C121" s="3" t="s">
         <v>78</v>
@@ -4844,13 +5499,17 @@
       <c r="I121" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J121" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K121" s="11"/>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>158</v>
       </c>
       <c r="B122" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C122" s="3" t="s">
         <v>78</v>
@@ -4873,8 +5532,12 @@
       <c r="I122" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J122" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K122" s="11"/>
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>153</v>
       </c>
@@ -4902,13 +5565,17 @@
       <c r="I123" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J123" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K123" s="11"/>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="3" t="s">
         <v>82</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C124" s="3" t="s">
         <v>83</v>
@@ -4931,13 +5598,17 @@
       <c r="I124" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J124" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K124" s="11"/>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="3" t="s">
         <v>112</v>
       </c>
       <c r="B125" s="4" t="s">
-        <v>156</v>
+        <v>313</v>
       </c>
       <c r="C125" s="3" t="s">
         <v>83</v>
@@ -4960,8 +5631,12 @@
       <c r="I125" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J125" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K125" s="11"/>
+    </row>
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>159</v>
       </c>
@@ -4989,8 +5664,12 @@
       <c r="I126" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J126" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K126" s="11"/>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="3" t="s">
         <v>53</v>
       </c>
@@ -5018,8 +5697,12 @@
       <c r="I127" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J127" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K127" s="11"/>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="3" t="s">
         <v>53</v>
       </c>
@@ -5047,8 +5730,12 @@
       <c r="I128" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J128" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K128" s="11"/>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>66</v>
       </c>
@@ -5076,8 +5763,12 @@
       <c r="I129" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J129" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K129" s="11"/>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>50</v>
       </c>
@@ -5105,8 +5796,12 @@
       <c r="I130" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J130" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K130" s="11"/>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="3" t="s">
         <v>131</v>
       </c>
@@ -5134,8 +5829,12 @@
       <c r="I131" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J131" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K131" s="11"/>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="3" t="s">
         <v>164</v>
       </c>
@@ -5163,8 +5862,12 @@
       <c r="I132" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J132" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K132" s="11"/>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="3" t="s">
         <v>164</v>
       </c>
@@ -5192,8 +5895,12 @@
       <c r="I133" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J133" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K133" s="11"/>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>50</v>
       </c>
@@ -5221,8 +5928,12 @@
       <c r="I134" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J134" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K134" s="11"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="3" t="s">
         <v>46</v>
       </c>
@@ -5250,8 +5961,12 @@
       <c r="I135" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J135" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K135" s="11"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>145</v>
       </c>
@@ -5279,13 +5994,17 @@
       <c r="I136" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J136" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K136" s="11"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B137" s="4" t="s">
-        <v>165</v>
+        <v>314</v>
       </c>
       <c r="C137" s="3" t="s">
         <v>40</v>
@@ -5308,8 +6027,12 @@
       <c r="I137" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J137" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K137" s="11"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>149</v>
       </c>
@@ -5337,13 +6060,17 @@
       <c r="I138" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J138" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K138" s="11"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>167</v>
+        <v>315</v>
       </c>
       <c r="C139" s="3" t="s">
         <v>40</v>
@@ -5366,8 +6093,12 @@
       <c r="I139" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J139" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K139" s="11"/>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>159</v>
       </c>
@@ -5395,13 +6126,17 @@
       <c r="I140" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J140" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K140" s="11"/>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B141" s="4" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>40</v>
@@ -5424,8 +6159,12 @@
       <c r="I141" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J141" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K141" s="11"/>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="3" t="s">
         <v>107</v>
       </c>
@@ -5453,13 +6192,17 @@
       <c r="I142" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J142" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K142" s="11"/>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B143" s="4" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>72</v>
@@ -5482,8 +6225,12 @@
       <c r="I143" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J143" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K143" s="11"/>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="3" t="s">
         <v>107</v>
       </c>
@@ -5511,13 +6258,17 @@
       <c r="I144" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J144" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K144" s="11"/>
+    </row>
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C145" s="3" t="s">
         <v>78</v>
@@ -5540,8 +6291,12 @@
       <c r="I145" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J145" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K145" s="11"/>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>107</v>
       </c>
@@ -5569,13 +6324,17 @@
       <c r="I146" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J146" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K146" s="11"/>
+    </row>
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>168</v>
+        <v>316</v>
       </c>
       <c r="C147" s="3" t="s">
         <v>83</v>
@@ -5598,8 +6357,12 @@
       <c r="I147" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J147" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K147" s="11"/>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="3" t="s">
         <v>159</v>
       </c>
@@ -5627,8 +6390,12 @@
       <c r="I148" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J148" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K148" s="11"/>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="3" t="s">
         <v>75</v>
       </c>
@@ -5656,8 +6423,12 @@
       <c r="I149" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J149" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K149" s="11"/>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>92</v>
       </c>
@@ -5685,8 +6456,12 @@
       <c r="I150" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J150" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K150" s="11"/>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="3" t="s">
         <v>92</v>
       </c>
@@ -5714,8 +6489,12 @@
       <c r="I151" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J151" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K151" s="11"/>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>128</v>
       </c>
@@ -5743,8 +6522,12 @@
       <c r="I152" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J152" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K152" s="11"/>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>128</v>
       </c>
@@ -5772,8 +6555,12 @@
       <c r="I153" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J153" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K153" s="11"/>
+    </row>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="3" t="s">
         <v>164</v>
       </c>
@@ -5801,8 +6588,12 @@
       <c r="I154" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J154" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K154" s="11"/>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>59</v>
       </c>
@@ -5830,8 +6621,12 @@
       <c r="I155" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J155" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K155" s="11"/>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>175</v>
       </c>
@@ -5859,13 +6654,17 @@
       <c r="I156" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J156" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K156" s="11"/>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>176</v>
+        <v>317</v>
       </c>
       <c r="C157" s="3" t="s">
         <v>40</v>
@@ -5888,8 +6687,12 @@
       <c r="I157" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J157" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K157" s="11"/>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="3" t="s">
         <v>175</v>
       </c>
@@ -5917,8 +6720,12 @@
       <c r="I158" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J158" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K158" s="11"/>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="3" t="s">
         <v>175</v>
       </c>
@@ -5946,8 +6753,12 @@
       <c r="I159" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J159" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K159" s="11"/>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>178</v>
       </c>
@@ -5975,13 +6786,17 @@
       <c r="I160" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J160" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K160" s="11"/>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="3" t="s">
         <v>178</v>
       </c>
       <c r="B161" s="4" t="s">
-        <v>179</v>
+        <v>318</v>
       </c>
       <c r="C161" s="3" t="s">
         <v>40</v>
@@ -6004,8 +6819,12 @@
       <c r="I161" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J161" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K161" s="11"/>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="3" t="s">
         <v>182</v>
       </c>
@@ -6033,13 +6852,17 @@
       <c r="I162" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J162" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K162" s="11"/>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="C163" s="3" t="s">
         <v>40</v>
@@ -6062,8 +6885,12 @@
       <c r="I163" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J163" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K163" s="11"/>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
         <v>184</v>
       </c>
@@ -6091,13 +6918,17 @@
       <c r="I164" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J164" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K164" s="11"/>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>184</v>
       </c>
       <c r="B165" s="4" t="s">
-        <v>183</v>
+        <v>319</v>
       </c>
       <c r="C165" s="3" t="s">
         <v>72</v>
@@ -6120,8 +6951,12 @@
       <c r="I165" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J165" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K165" s="11"/>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>121</v>
       </c>
@@ -6149,13 +6984,17 @@
       <c r="I166" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J166" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K166" s="11"/>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B167" s="4" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="C167" s="3" t="s">
         <v>40</v>
@@ -6178,8 +7017,12 @@
       <c r="I167" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J167" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K167" s="11"/>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="3" t="s">
         <v>186</v>
       </c>
@@ -6207,13 +7050,17 @@
       <c r="I168" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J168" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K168" s="11"/>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>185</v>
+        <v>320</v>
       </c>
       <c r="C169" s="3" t="s">
         <v>72</v>
@@ -6236,8 +7083,12 @@
       <c r="I169" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J169" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K169" s="11"/>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
         <v>178</v>
       </c>
@@ -6265,13 +7116,17 @@
       <c r="I170" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J170" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K170" s="11"/>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="5" t="s">
         <v>188</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>187</v>
+        <v>321</v>
       </c>
       <c r="C171" s="5" t="s">
         <v>40</v>
@@ -6294,8 +7149,12 @@
       <c r="I171" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J171" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K171" s="11"/>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="3" t="s">
         <v>189</v>
       </c>
@@ -6323,13 +7182,17 @@
       <c r="I172" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J172" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K172" s="11"/>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="3" t="s">
         <v>189</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>190</v>
+        <v>322</v>
       </c>
       <c r="C173" s="3" t="s">
         <v>40</v>
@@ -6352,8 +7215,12 @@
       <c r="I173" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J173" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K173" s="11"/>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="3" t="s">
         <v>24</v>
       </c>
@@ -6381,8 +7248,12 @@
       <c r="I174" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J174" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K174" s="11"/>
+    </row>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>194</v>
       </c>
@@ -6410,8 +7281,12 @@
       <c r="I175" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J175" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K175" s="11"/>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>196</v>
       </c>
@@ -6439,8 +7314,12 @@
       <c r="I176" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J176" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K176" s="11"/>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>198</v>
       </c>
@@ -6468,8 +7347,12 @@
       <c r="I177" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J177" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K177" s="11"/>
+    </row>
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>198</v>
       </c>
@@ -6497,8 +7380,12 @@
       <c r="I178" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J178" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K178" s="11"/>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="3" t="s">
         <v>200</v>
       </c>
@@ -6526,8 +7413,12 @@
       <c r="I179" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J179" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K179" s="11"/>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="3" t="s">
         <v>24</v>
       </c>
@@ -6555,8 +7446,12 @@
       <c r="I180" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J180" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K180" s="11"/>
+    </row>
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>202</v>
       </c>
@@ -6584,8 +7479,12 @@
       <c r="I181" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J181" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K181" s="11"/>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>202</v>
       </c>
@@ -6613,8 +7512,12 @@
       <c r="I182" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J182" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K182" s="11"/>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="3" t="s">
         <v>202</v>
       </c>
@@ -6642,8 +7545,12 @@
       <c r="I183" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J183" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K183" s="11"/>
+    </row>
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="3" t="s">
         <v>202</v>
       </c>
@@ -6671,8 +7578,12 @@
       <c r="I184" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J184" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K184" s="11"/>
+    </row>
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="3" t="s">
         <v>42</v>
       </c>
@@ -6700,13 +7611,17 @@
       <c r="I185" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J185" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K185" s="11"/>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B186" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C186" s="3" t="s">
         <v>40</v>
@@ -6729,8 +7644,12 @@
       <c r="I186" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J186" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K186" s="11"/>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>36</v>
       </c>
@@ -6758,13 +7677,17 @@
       <c r="I187" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J187" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K187" s="11"/>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="3" t="s">
         <v>210</v>
       </c>
       <c r="B188" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C188" s="3" t="s">
         <v>72</v>
@@ -6787,13 +7710,17 @@
       <c r="I188" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J188" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K188" s="11"/>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="3" t="s">
         <v>211</v>
       </c>
       <c r="B189" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C189" s="3" t="s">
         <v>72</v>
@@ -6816,8 +7743,12 @@
       <c r="I189" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J189" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K189" s="11"/>
+    </row>
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>36</v>
       </c>
@@ -6845,13 +7776,17 @@
       <c r="I190" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J190" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K190" s="11"/>
+    </row>
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B191" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C191" s="3" t="s">
         <v>78</v>
@@ -6874,8 +7809,12 @@
       <c r="I191" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J191" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K191" s="11"/>
+    </row>
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="3" t="s">
         <v>36</v>
       </c>
@@ -6903,13 +7842,17 @@
       <c r="I192" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J192" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K192" s="11"/>
+    </row>
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B193" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C193" s="3" t="s">
         <v>83</v>
@@ -6932,13 +7875,17 @@
       <c r="I193" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J193" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K193" s="11"/>
+    </row>
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B194" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C194" s="3" t="s">
         <v>83</v>
@@ -6961,8 +7908,12 @@
       <c r="I194" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J194" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K194" s="11"/>
+    </row>
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="3" t="s">
         <v>36</v>
       </c>
@@ -6990,13 +7941,17 @@
       <c r="I195" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J195" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K195" s="11"/>
+    </row>
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>214</v>
       </c>
       <c r="B196" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C196" s="3" t="s">
         <v>87</v>
@@ -7019,13 +7974,17 @@
       <c r="I196" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J196" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K196" s="11"/>
+    </row>
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>215</v>
       </c>
       <c r="B197" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C197" s="3" t="s">
         <v>87</v>
@@ -7048,8 +8007,12 @@
       <c r="I197" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J197" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K197" s="11"/>
+    </row>
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>42</v>
       </c>
@@ -7077,13 +8040,17 @@
       <c r="I198" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J198" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K198" s="11"/>
+    </row>
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>216</v>
       </c>
       <c r="B199" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C199" s="3" t="s">
         <v>90</v>
@@ -7106,13 +8073,17 @@
       <c r="I199" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J199" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K199" s="11"/>
+    </row>
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>207</v>
       </c>
       <c r="B200" s="4" t="s">
-        <v>205</v>
+        <v>323</v>
       </c>
       <c r="C200" s="3" t="s">
         <v>90</v>
@@ -7135,8 +8106,12 @@
       <c r="I200" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J200" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K200" s="11"/>
+    </row>
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>36</v>
       </c>
@@ -7164,13 +8139,17 @@
       <c r="I201" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J201" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K201" s="11"/>
+    </row>
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="3" t="s">
         <v>36</v>
       </c>
       <c r="B202" s="4" t="s">
-        <v>217</v>
+        <v>324</v>
       </c>
       <c r="C202" s="3" t="s">
         <v>40</v>
@@ -7193,8 +8172,12 @@
       <c r="I202" s="3" t="s">
         <v>297</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J202" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K202" s="11"/>
+    </row>
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="3" t="s">
         <v>219</v>
       </c>
@@ -7222,8 +8205,12 @@
       <c r="I203" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J203" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K203" s="11"/>
+    </row>
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="3" t="s">
         <v>219</v>
       </c>
@@ -7251,8 +8238,12 @@
       <c r="I204" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J204" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K204" s="11"/>
+    </row>
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>24</v>
       </c>
@@ -7280,8 +8271,12 @@
       <c r="I205" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J205" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K205" s="11"/>
+    </row>
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>24</v>
       </c>
@@ -7309,8 +8304,12 @@
       <c r="I206" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J206" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K206" s="11"/>
+    </row>
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>194</v>
       </c>
@@ -7338,8 +8337,12 @@
       <c r="I207" s="3" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J207" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K207" s="11"/>
+    </row>
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="3" t="s">
         <v>224</v>
       </c>
@@ -7367,8 +8370,12 @@
       <c r="I208" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J208" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K208" s="11"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>224</v>
       </c>
@@ -7396,8 +8403,12 @@
       <c r="I209" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J209" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K209" s="11"/>
+    </row>
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>227</v>
       </c>
@@ -7425,8 +8436,12 @@
       <c r="I210" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J210" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K210" s="11"/>
+    </row>
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="3" t="s">
         <v>227</v>
       </c>
@@ -7454,8 +8469,12 @@
       <c r="I211" s="3" t="s">
         <v>300</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J211" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K211" s="11"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="3" t="s">
         <v>230</v>
       </c>
@@ -7483,8 +8502,12 @@
       <c r="I212" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J212" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K212" s="11"/>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="3" t="s">
         <v>230</v>
       </c>
@@ -7512,8 +8535,12 @@
       <c r="I213" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J213" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K213" s="11"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="3" t="s">
         <v>8</v>
       </c>
@@ -7541,8 +8568,12 @@
       <c r="I214" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J214" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K214" s="11"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>100</v>
       </c>
@@ -7570,8 +8601,12 @@
       <c r="I215" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J215" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K215" s="11"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>8</v>
       </c>
@@ -7599,8 +8634,12 @@
       <c r="I216" s="3" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J216" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K216" s="11"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>46</v>
       </c>
@@ -7628,13 +8667,17 @@
       <c r="I217" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J217" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K217" s="11"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B218" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C218" s="3" t="s">
         <v>40</v>
@@ -7657,13 +8700,17 @@
       <c r="I218" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J218" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K218" s="11"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B219" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C219" s="3" t="s">
         <v>40</v>
@@ -7686,8 +8733,12 @@
       <c r="I219" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J219" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K219" s="11"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>153</v>
       </c>
@@ -7715,13 +8766,17 @@
       <c r="I220" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J220" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K220" s="11"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>238</v>
       </c>
       <c r="B221" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C221" s="3" t="s">
         <v>72</v>
@@ -7744,13 +8799,17 @@
       <c r="I221" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J221" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K221" s="11"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>91</v>
       </c>
       <c r="B222" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C222" s="3" t="s">
         <v>72</v>
@@ -7773,8 +8832,12 @@
       <c r="I222" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J222" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K222" s="11"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="3" t="s">
         <v>153</v>
       </c>
@@ -7802,13 +8865,17 @@
       <c r="I223" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J223" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K223" s="11"/>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B224" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C224" s="3" t="s">
         <v>78</v>
@@ -7831,13 +8898,17 @@
       <c r="I224" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J224" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K224" s="11"/>
+    </row>
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B225" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C225" s="3" t="s">
         <v>78</v>
@@ -7860,8 +8931,12 @@
       <c r="I225" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J225" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K225" s="11"/>
+    </row>
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>131</v>
       </c>
@@ -7889,13 +8964,17 @@
       <c r="I226" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J226" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K226" s="11"/>
+    </row>
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>240</v>
       </c>
       <c r="B227" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C227" s="3" t="s">
         <v>83</v>
@@ -7918,13 +8997,17 @@
       <c r="I227" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J227" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K227" s="11"/>
+    </row>
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>125</v>
       </c>
       <c r="B228" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C228" s="3" t="s">
         <v>83</v>
@@ -7947,8 +9030,12 @@
       <c r="I228" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J228" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K228" s="11"/>
+    </row>
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>131</v>
       </c>
@@ -7976,13 +9063,17 @@
       <c r="I229" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J229" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K229" s="11"/>
+    </row>
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>242</v>
       </c>
       <c r="B230" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C230" s="3" t="s">
         <v>87</v>
@@ -8005,13 +9096,17 @@
       <c r="I230" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J230" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K230" s="11"/>
+    </row>
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>243</v>
       </c>
       <c r="B231" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C231" s="3" t="s">
         <v>87</v>
@@ -8034,8 +9129,12 @@
       <c r="I231" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J231" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K231" s="11"/>
+    </row>
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="3" t="s">
         <v>164</v>
       </c>
@@ -8063,13 +9162,17 @@
       <c r="I232" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J232" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K232" s="11"/>
+    </row>
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="3" t="s">
         <v>245</v>
       </c>
       <c r="B233" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C233" s="3" t="s">
         <v>90</v>
@@ -8092,13 +9195,17 @@
       <c r="I233" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J233" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K233" s="11"/>
+    </row>
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="3" t="s">
         <v>246</v>
       </c>
       <c r="B234" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C234" s="3" t="s">
         <v>90</v>
@@ -8121,8 +9228,12 @@
       <c r="I234" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J234" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K234" s="11"/>
+    </row>
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="3" t="s">
         <v>164</v>
       </c>
@@ -8150,13 +9261,17 @@
       <c r="I235" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J235" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K235" s="11"/>
+    </row>
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="3" t="s">
         <v>237</v>
       </c>
       <c r="B236" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C236" s="3" t="s">
         <v>95</v>
@@ -8179,13 +9294,17 @@
       <c r="I236" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J236" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K236" s="11"/>
+    </row>
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="3" t="s">
         <v>236</v>
       </c>
       <c r="B237" s="4" t="s">
-        <v>235</v>
+        <v>325</v>
       </c>
       <c r="C237" s="3" t="s">
         <v>95</v>
@@ -8208,8 +9327,12 @@
       <c r="I237" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J237" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K237" s="11"/>
+    </row>
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="3" t="s">
         <v>149</v>
       </c>
@@ -8237,8 +9360,12 @@
       <c r="I238" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J238" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K238" s="11"/>
+    </row>
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="3" t="s">
         <v>80</v>
       </c>
@@ -8266,8 +9393,12 @@
       <c r="I239" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J239" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K239" s="11"/>
+    </row>
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="3" t="s">
         <v>80</v>
       </c>
@@ -8295,8 +9426,12 @@
       <c r="I240" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J240" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K240" s="11"/>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="3" t="s">
         <v>92</v>
       </c>
@@ -8324,8 +9459,12 @@
       <c r="I241" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J241" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K241" s="11"/>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>149</v>
       </c>
@@ -8353,8 +9492,12 @@
       <c r="I242" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J242" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K242" s="11"/>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="3" t="s">
         <v>53</v>
       </c>
@@ -8382,8 +9525,12 @@
       <c r="I243" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J243" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K243" s="11"/>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="3" t="s">
         <v>159</v>
       </c>
@@ -8411,8 +9558,12 @@
       <c r="I244" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J244" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K244" s="11"/>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>59</v>
       </c>
@@ -8440,8 +9591,12 @@
       <c r="I245" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J245" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K245" s="11"/>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="3" t="s">
         <v>124</v>
       </c>
@@ -8469,8 +9624,12 @@
       <c r="I246" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J246" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K246" s="11"/>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="3" t="s">
         <v>159</v>
       </c>
@@ -8498,8 +9657,12 @@
       <c r="I247" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J247" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K247" s="11"/>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="3" t="s">
         <v>145</v>
       </c>
@@ -8527,8 +9690,12 @@
       <c r="I248" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J248" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K248" s="11"/>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="3" t="s">
         <v>256</v>
       </c>
@@ -8556,8 +9723,12 @@
       <c r="I249" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J249" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K249" s="11"/>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="3" t="s">
         <v>257</v>
       </c>
@@ -8585,8 +9756,12 @@
       <c r="I250" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J250" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K250" s="11"/>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="3" t="s">
         <v>257</v>
       </c>
@@ -8614,8 +9789,12 @@
       <c r="I251" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J251" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K251" s="11"/>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="3" t="s">
         <v>145</v>
       </c>
@@ -8643,8 +9822,12 @@
       <c r="I252" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J252" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K252" s="11"/>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="3" t="s">
         <v>103</v>
       </c>
@@ -8672,8 +9855,12 @@
       <c r="I253" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J253" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K253" s="11"/>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="3" t="s">
         <v>105</v>
       </c>
@@ -8701,8 +9888,12 @@
       <c r="I254" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J254" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K254" s="11"/>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="3" t="s">
         <v>103</v>
       </c>
@@ -8730,13 +9921,17 @@
       <c r="I255" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J255" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K255" s="11"/>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B256" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C256" s="3" t="s">
         <v>78</v>
@@ -8759,13 +9954,17 @@
       <c r="I256" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J256" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K256" s="11"/>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B257" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C257" s="3" t="s">
         <v>78</v>
@@ -8788,8 +9987,12 @@
       <c r="I257" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J257" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K257" s="11"/>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="3" t="s">
         <v>143</v>
       </c>
@@ -8817,13 +10020,17 @@
       <c r="I258" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J258" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K258" s="11"/>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="3" t="s">
         <v>105</v>
       </c>
       <c r="B259" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C259" s="3" t="s">
         <v>83</v>
@@ -8846,13 +10053,17 @@
       <c r="I259" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J259" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K259" s="11"/>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B260" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C260" s="3" t="s">
         <v>83</v>
@@ -8875,8 +10086,12 @@
       <c r="I260" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J260" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K260" s="11"/>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="3" t="s">
         <v>143</v>
       </c>
@@ -8904,13 +10119,17 @@
       <c r="I261" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J261" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K261" s="11"/>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="3" t="s">
         <v>126</v>
       </c>
       <c r="B262" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C262" s="3" t="s">
         <v>87</v>
@@ -8933,13 +10152,17 @@
       <c r="I262" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J262" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K262" s="11"/>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="3" t="s">
         <v>110</v>
       </c>
       <c r="B263" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C263" s="3" t="s">
         <v>87</v>
@@ -8962,8 +10185,12 @@
       <c r="I263" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J263" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K263" s="11"/>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>124</v>
       </c>
@@ -8991,13 +10218,17 @@
       <c r="I264" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J264" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K264" s="11"/>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="3" t="s">
         <v>108</v>
       </c>
       <c r="B265" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C265" s="3" t="s">
         <v>90</v>
@@ -9020,13 +10251,17 @@
       <c r="I265" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J265" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K265" s="11"/>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="3" t="s">
         <v>262</v>
       </c>
       <c r="B266" s="4" t="s">
-        <v>259</v>
+        <v>326</v>
       </c>
       <c r="C266" s="3" t="s">
         <v>90</v>
@@ -9049,8 +10284,12 @@
       <c r="I266" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J266" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K266" s="11"/>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="3" t="s">
         <v>55</v>
       </c>
@@ -9078,13 +10317,17 @@
       <c r="I267" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J267" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K267" s="11"/>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B268" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C268" s="3" t="s">
         <v>40</v>
@@ -9107,13 +10350,17 @@
       <c r="I268" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J268" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K268" s="11"/>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B269" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C269" s="3" t="s">
         <v>40</v>
@@ -9136,8 +10383,12 @@
       <c r="I269" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J269" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K269" s="11"/>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="3" t="s">
         <v>53</v>
       </c>
@@ -9165,13 +10416,17 @@
       <c r="I270" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J270" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K270" s="11"/>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B271" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C271" s="3" t="s">
         <v>72</v>
@@ -9194,13 +10449,17 @@
       <c r="I271" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J271" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K271" s="11"/>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B272" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C272" s="3" t="s">
         <v>72</v>
@@ -9223,8 +10482,12 @@
       <c r="I272" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J272" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K272" s="11"/>
+    </row>
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="3" t="s">
         <v>149</v>
       </c>
@@ -9252,13 +10515,17 @@
       <c r="I273" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J273" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K273" s="11"/>
+    </row>
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B274" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C274" s="3" t="s">
         <v>78</v>
@@ -9281,13 +10548,17 @@
       <c r="I274" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J274" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K274" s="11"/>
+    </row>
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B275" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C275" s="3" t="s">
         <v>78</v>
@@ -9310,8 +10581,12 @@
       <c r="I275" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J275" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K275" s="11"/>
+    </row>
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>103</v>
       </c>
@@ -9339,13 +10614,17 @@
       <c r="I276" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J276" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K276" s="11"/>
+    </row>
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B277" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C277" s="3" t="s">
         <v>83</v>
@@ -9368,13 +10647,17 @@
       <c r="I277" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J277" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K277" s="11"/>
+    </row>
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B278" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C278" s="3" t="s">
         <v>83</v>
@@ -9397,8 +10680,12 @@
       <c r="I278" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J278" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K278" s="11"/>
+    </row>
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="3" t="s">
         <v>53</v>
       </c>
@@ -9426,13 +10713,17 @@
       <c r="I279" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J279" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K279" s="11"/>
+    </row>
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B280" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C280" s="3" t="s">
         <v>87</v>
@@ -9455,13 +10746,17 @@
       <c r="I280" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J280" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K280" s="11"/>
+    </row>
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B281" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C281" s="3" t="s">
         <v>87</v>
@@ -9484,8 +10779,12 @@
       <c r="I281" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J281" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K281" s="11"/>
+    </row>
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="3" t="s">
         <v>55</v>
       </c>
@@ -9513,13 +10812,17 @@
       <c r="I282" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J282" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K282" s="11"/>
+    </row>
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="3" t="s">
         <v>111</v>
       </c>
       <c r="B283" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C283" s="3" t="s">
         <v>90</v>
@@ -9542,13 +10845,17 @@
       <c r="I283" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J283" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K283" s="11"/>
+    </row>
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="3" t="s">
         <v>265</v>
       </c>
       <c r="B284" s="4" t="s">
-        <v>263</v>
+        <v>327</v>
       </c>
       <c r="C284" s="3" t="s">
         <v>90</v>
@@ -9571,8 +10878,12 @@
       <c r="I284" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J284" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K284" s="11"/>
+    </row>
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="3" t="s">
         <v>128</v>
       </c>
@@ -9600,8 +10911,12 @@
       <c r="I285" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J285" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K285" s="11"/>
+    </row>
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>128</v>
       </c>
@@ -9629,8 +10944,12 @@
       <c r="I286" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J286" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K286" s="11"/>
+    </row>
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="3" t="s">
         <v>59</v>
       </c>
@@ -9658,8 +10977,12 @@
       <c r="I287" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J287" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K287" s="11"/>
+    </row>
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="3" t="s">
         <v>128</v>
       </c>
@@ -9687,8 +11010,12 @@
       <c r="I288" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J288" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K288" s="11"/>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="3" t="s">
         <v>145</v>
       </c>
@@ -9716,13 +11043,17 @@
       <c r="I289" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J289" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K289" s="11"/>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>145</v>
       </c>
       <c r="B290" s="4" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C290" s="3" t="s">
         <v>40</v>
@@ -9745,13 +11076,17 @@
       <c r="I290" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J290" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K290" s="11"/>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B291" s="4" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C291" s="3" t="s">
         <v>40</v>
@@ -9774,13 +11109,17 @@
       <c r="I291" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J291" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K291" s="11"/>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B292" s="4" t="s">
-        <v>267</v>
+        <v>328</v>
       </c>
       <c r="C292" s="3" t="s">
         <v>40</v>
@@ -9803,8 +11142,12 @@
       <c r="I292" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J292" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K292" s="11"/>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="3" t="s">
         <v>149</v>
       </c>
@@ -9832,13 +11175,17 @@
       <c r="I293" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J293" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K293" s="11"/>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>149</v>
       </c>
       <c r="B294" s="4" t="s">
-        <v>270</v>
+        <v>329</v>
       </c>
       <c r="C294" s="3" t="s">
         <v>40</v>
@@ -9861,8 +11208,12 @@
       <c r="I294" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J294" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K294" s="11"/>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>68</v>
       </c>
@@ -9890,8 +11241,12 @@
       <c r="I295" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J295" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K295" s="11"/>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>68</v>
       </c>
@@ -9919,8 +11274,12 @@
       <c r="I296" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J296" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K296" s="11"/>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>133</v>
       </c>
@@ -9948,8 +11307,12 @@
       <c r="I297" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J297" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K297" s="11"/>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>80</v>
       </c>
@@ -9977,8 +11340,12 @@
       <c r="I298" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J298" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K298" s="11"/>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>257</v>
       </c>
@@ -10006,13 +11373,17 @@
       <c r="I299" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J299" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K299" s="11"/>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="3" t="s">
         <v>269</v>
       </c>
       <c r="B300" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C300" s="3" t="s">
         <v>40</v>
@@ -10035,13 +11406,17 @@
       <c r="I300" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J300" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K300" s="11"/>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B301" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C301" s="3" t="s">
         <v>40</v>
@@ -10064,13 +11439,17 @@
       <c r="I301" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J301" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K301" s="11"/>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>257</v>
       </c>
       <c r="B302" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C302" s="3" t="s">
         <v>40</v>
@@ -10093,8 +11472,12 @@
       <c r="I302" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J302" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K302" s="11"/>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>107</v>
       </c>
@@ -10122,13 +11505,17 @@
       <c r="I303" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J303" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K303" s="11"/>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B304" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C304" s="3" t="s">
         <v>72</v>
@@ -10151,13 +11538,17 @@
       <c r="I304" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J304" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K304" s="11"/>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B305" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C305" s="3" t="s">
         <v>72</v>
@@ -10180,13 +11571,17 @@
       <c r="I305" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J305" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K305" s="11"/>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="3" t="s">
         <v>107</v>
       </c>
       <c r="B306" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C306" s="3" t="s">
         <v>72</v>
@@ -10209,8 +11604,12 @@
       <c r="I306" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J306" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K306" s="11"/>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="3" t="s">
         <v>159</v>
       </c>
@@ -10238,13 +11637,17 @@
       <c r="I307" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J307" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K307" s="11"/>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B308" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C308" s="3" t="s">
         <v>78</v>
@@ -10267,13 +11670,17 @@
       <c r="I308" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J308" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K308" s="11"/>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B309" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C309" s="3" t="s">
         <v>78</v>
@@ -10296,13 +11703,17 @@
       <c r="I309" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J309" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K309" s="11"/>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B310" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C310" s="3" t="s">
         <v>78</v>
@@ -10325,8 +11736,12 @@
       <c r="I310" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J310" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K310" s="11"/>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="3" t="s">
         <v>159</v>
       </c>
@@ -10354,13 +11769,17 @@
       <c r="I311" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J311" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K311" s="11"/>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="3" t="s">
         <v>268</v>
       </c>
       <c r="B312" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C312" s="3" t="s">
         <v>83</v>
@@ -10383,13 +11802,17 @@
       <c r="I312" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J312" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K312" s="11"/>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="3" t="s">
         <v>118</v>
       </c>
       <c r="B313" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C313" s="3" t="s">
         <v>83</v>
@@ -10412,13 +11835,17 @@
       <c r="I313" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J313" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K313" s="11"/>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="3" t="s">
         <v>159</v>
       </c>
       <c r="B314" s="4" t="s">
-        <v>273</v>
+        <v>330</v>
       </c>
       <c r="C314" s="3" t="s">
         <v>83</v>
@@ -10441,8 +11868,12 @@
       <c r="I314" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J314" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K314" s="11"/>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="3" t="s">
         <v>50</v>
       </c>
@@ -10470,13 +11901,17 @@
       <c r="I315" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J315" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K315" s="11"/>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="3" t="s">
         <v>50</v>
       </c>
       <c r="B316" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C316" s="3" t="s">
         <v>40</v>
@@ -10499,8 +11934,12 @@
       <c r="I316" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J316" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K316" s="11"/>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="3" t="s">
         <v>131</v>
       </c>
@@ -10528,13 +11967,17 @@
       <c r="I317" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J317" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K317" s="11"/>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="3" t="s">
         <v>131</v>
       </c>
       <c r="B318" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C318" s="3" t="s">
         <v>72</v>
@@ -10557,8 +12000,12 @@
       <c r="I318" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J318" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K318" s="11"/>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="3" t="s">
         <v>46</v>
       </c>
@@ -10586,13 +12033,17 @@
       <c r="I319" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J319" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K319" s="11"/>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="3" t="s">
         <v>46</v>
       </c>
       <c r="B320" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C320" s="3" t="s">
         <v>78</v>
@@ -10615,8 +12066,12 @@
       <c r="I320" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J320" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K320" s="11"/>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>143</v>
       </c>
@@ -10644,13 +12099,17 @@
       <c r="I321" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J321" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K321" s="11"/>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="3" t="s">
         <v>143</v>
       </c>
       <c r="B322" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C322" s="3" t="s">
         <v>83</v>
@@ -10673,8 +12132,12 @@
       <c r="I322" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J322" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K322" s="11"/>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="3" t="s">
         <v>164</v>
       </c>
@@ -10702,13 +12165,17 @@
       <c r="I323" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J323" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K323" s="11"/>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="3" t="s">
         <v>164</v>
       </c>
       <c r="B324" s="4" t="s">
-        <v>274</v>
+        <v>331</v>
       </c>
       <c r="C324" s="3" t="s">
         <v>87</v>
@@ -10731,8 +12198,12 @@
       <c r="I324" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J324" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K324" s="11"/>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="3" t="s">
         <v>135</v>
       </c>
@@ -10760,8 +12231,12 @@
       <c r="I325" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J325" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K325" s="11"/>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="3" t="s">
         <v>135</v>
       </c>
@@ -10789,8 +12264,12 @@
       <c r="I326" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J326" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K326" s="11"/>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="3" t="s">
         <v>133</v>
       </c>
@@ -10818,8 +12297,12 @@
       <c r="I327" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J327" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K327" s="11"/>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="3" t="s">
         <v>256</v>
       </c>
@@ -10847,8 +12330,12 @@
       <c r="I328" s="3" t="s">
         <v>298</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J328" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K328" s="11"/>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="3" t="s">
         <v>276</v>
       </c>
@@ -10876,8 +12363,12 @@
       <c r="I329" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J329" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K329" s="11"/>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="3" t="s">
         <v>278</v>
       </c>
@@ -10905,8 +12396,12 @@
       <c r="I330" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J330" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K330" s="11"/>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="3" t="s">
         <v>276</v>
       </c>
@@ -10934,8 +12429,12 @@
       <c r="I331" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J331" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K331" s="11"/>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="3" t="s">
         <v>280</v>
       </c>
@@ -10963,8 +12462,12 @@
       <c r="I332" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J332" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K332" s="11"/>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="3" t="s">
         <v>278</v>
       </c>
@@ -10992,8 +12495,12 @@
       <c r="I333" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J333" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K333" s="11"/>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="3" t="s">
         <v>280</v>
       </c>
@@ -11021,8 +12528,12 @@
       <c r="I334" s="3" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J334" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K334" s="11"/>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="3" t="s">
         <v>281</v>
       </c>
@@ -11050,8 +12561,12 @@
       <c r="I335" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J335" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K335" s="11"/>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="3" t="s">
         <v>281</v>
       </c>
@@ -11079,8 +12594,12 @@
       <c r="I336" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J336" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K336" s="11"/>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>285</v>
       </c>
@@ -11108,8 +12627,12 @@
       <c r="I337" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J337" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K337" s="11"/>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="3" t="s">
         <v>286</v>
       </c>
@@ -11137,8 +12660,12 @@
       <c r="I338" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J338" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K338" s="11"/>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="3" t="s">
         <v>36</v>
       </c>
@@ -11166,8 +12693,12 @@
       <c r="I339" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J339" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K339" s="11"/>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="3" t="s">
         <v>121</v>
       </c>
@@ -11195,13 +12726,17 @@
       <c r="I340" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J340" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K340" s="11"/>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>121</v>
       </c>
       <c r="B341" s="4" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="C341" s="3" t="s">
         <v>40</v>
@@ -11224,8 +12759,12 @@
       <c r="I341" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J341" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K341" s="11"/>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="3" t="s">
         <v>186</v>
       </c>
@@ -11253,13 +12792,17 @@
       <c r="I342" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J342" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K342" s="11"/>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="3" t="s">
         <v>186</v>
       </c>
       <c r="B343" s="4" t="s">
-        <v>289</v>
+        <v>332</v>
       </c>
       <c r="C343" s="3" t="s">
         <v>72</v>
@@ -11282,8 +12825,12 @@
       <c r="I343" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J343" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K343" s="11"/>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>175</v>
       </c>
@@ -11311,13 +12858,17 @@
       <c r="I344" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J344" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K344" s="11"/>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="3" t="s">
         <v>175</v>
       </c>
       <c r="B345" s="4" t="s">
-        <v>290</v>
+        <v>333</v>
       </c>
       <c r="C345" s="3" t="s">
         <v>40</v>
@@ -11340,8 +12891,12 @@
       <c r="I345" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="346" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J345" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K345" s="11"/>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>178</v>
       </c>
@@ -11369,13 +12924,17 @@
       <c r="I346" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="347" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J346" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K346" s="11"/>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="3" t="s">
         <v>188</v>
       </c>
       <c r="B347" s="4" t="s">
-        <v>291</v>
+        <v>334</v>
       </c>
       <c r="C347" s="3" t="s">
         <v>40</v>
@@ -11398,8 +12957,12 @@
       <c r="I347" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="348" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J347" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K347" s="11"/>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>292</v>
       </c>
@@ -11427,13 +12990,17 @@
       <c r="I348" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="349" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J348" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K348" s="11"/>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="3" t="s">
         <v>292</v>
       </c>
       <c r="B349" s="4" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C349" s="3" t="s">
         <v>40</v>
@@ -11456,8 +13023,12 @@
       <c r="I349" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="350" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J349" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K349" s="11"/>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="3" t="s">
         <v>182</v>
       </c>
@@ -11485,13 +13056,17 @@
       <c r="I350" s="3" t="s">
         <v>299</v>
       </c>
-    </row>
-    <row r="351" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J350" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="K350" s="11"/>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="3" t="s">
         <v>182</v>
       </c>
       <c r="B351" s="4" t="s">
-        <v>293</v>
+        <v>335</v>
       </c>
       <c r="C351" s="3" t="s">
         <v>72</v>
@@ -11514,9 +13089,14 @@
       <c r="I351" s="3" t="s">
         <v>299</v>
       </c>
+      <c r="J351" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="K351" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Pake Dataset/dataset/Data.xlsx
+++ b/Pake Dataset/dataset/Data.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kuliah\Skripsi\skripsi\Pake Dataset\dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC7531EC-91F1-4C8E-BBC8-5B1AB7A07191}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EBE70D-53CD-40EB-B993-970D172C2D39}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3511" uniqueCount="338">
   <si>
     <t>Nama Dosen</t>
   </si>
@@ -1042,6 +1043,9 @@
   </si>
   <si>
     <t>SKS</t>
+  </si>
+  <si>
+    <t>Peminatan</t>
   </si>
 </sst>
 </file>
@@ -1471,8 +1475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K351"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A330" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H339" sqref="H339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1486,7 +1490,7 @@
     <col min="7" max="7" width="9.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1"/>
     <col min="9" max="9" width="7.85546875" customWidth="1"/>
-    <col min="10" max="10" width="7.140625" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="6.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -8904,7 +8908,7 @@
         <v>297</v>
       </c>
       <c r="J212" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K212" s="8">
         <v>1</v>
@@ -8939,7 +8943,7 @@
         <v>297</v>
       </c>
       <c r="J213" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K213" s="8">
         <v>4</v>
@@ -8974,7 +8978,7 @@
         <v>297</v>
       </c>
       <c r="J214" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K214" s="8">
         <v>1</v>
@@ -9009,7 +9013,7 @@
         <v>297</v>
       </c>
       <c r="J215" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K215" s="8">
         <v>4</v>
@@ -9044,7 +9048,7 @@
         <v>298</v>
       </c>
       <c r="J216" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K216" s="8">
         <v>1</v>
@@ -9079,7 +9083,7 @@
         <v>298</v>
       </c>
       <c r="J217" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K217" s="8">
         <v>4</v>
@@ -9114,7 +9118,7 @@
         <v>298</v>
       </c>
       <c r="J218" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K218" s="8">
         <v>4</v>
@@ -9149,7 +9153,7 @@
         <v>298</v>
       </c>
       <c r="J219" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K219" s="8">
         <v>1</v>
@@ -9184,7 +9188,7 @@
         <v>298</v>
       </c>
       <c r="J220" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K220" s="8">
         <v>4</v>
@@ -10269,7 +10273,7 @@
         <v>299</v>
       </c>
       <c r="J251" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K251" s="8">
         <v>1</v>
@@ -10304,7 +10308,7 @@
         <v>299</v>
       </c>
       <c r="J252" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K252" s="8">
         <v>4</v>
@@ -10339,7 +10343,7 @@
         <v>299</v>
       </c>
       <c r="J253" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K253" s="8">
         <v>1</v>
@@ -10374,7 +10378,7 @@
         <v>299</v>
       </c>
       <c r="J254" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K254" s="8">
         <v>4</v>
@@ -10409,7 +10413,7 @@
         <v>299</v>
       </c>
       <c r="J255" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K255" s="8">
         <v>2</v>
@@ -10444,7 +10448,7 @@
         <v>299</v>
       </c>
       <c r="J256" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K256" s="8">
         <v>2</v>
@@ -10479,7 +10483,7 @@
         <v>299</v>
       </c>
       <c r="J257" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K257" s="8">
         <v>1</v>
@@ -10514,7 +10518,7 @@
         <v>299</v>
       </c>
       <c r="J258" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K258" s="8">
         <v>4</v>
@@ -10549,7 +10553,7 @@
         <v>299</v>
       </c>
       <c r="J259" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K259" s="8">
         <v>1</v>
@@ -10584,7 +10588,7 @@
         <v>299</v>
       </c>
       <c r="J260" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K260" s="8">
         <v>4</v>
@@ -10619,7 +10623,7 @@
         <v>297</v>
       </c>
       <c r="J261" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K261" s="8">
         <v>1</v>
@@ -10654,7 +10658,7 @@
         <v>297</v>
       </c>
       <c r="J262" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K262" s="8">
         <v>4</v>
@@ -10829,7 +10833,7 @@
         <v>298</v>
       </c>
       <c r="J267" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K267" s="8">
         <v>1</v>
@@ -10864,7 +10868,7 @@
         <v>298</v>
       </c>
       <c r="J268" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K268" s="8">
         <v>4</v>
@@ -10899,7 +10903,7 @@
         <v>298</v>
       </c>
       <c r="J269" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K269" s="8">
         <v>4</v>
@@ -10934,7 +10938,7 @@
         <v>298</v>
       </c>
       <c r="J270" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K270" s="8">
         <v>4</v>
@@ -10969,7 +10973,7 @@
         <v>298</v>
       </c>
       <c r="J271" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K271" s="8">
         <v>1</v>
@@ -11004,7 +11008,7 @@
         <v>298</v>
       </c>
       <c r="J272" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K272" s="8">
         <v>4</v>
@@ -12404,7 +12408,7 @@
         <v>299</v>
       </c>
       <c r="J312" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K312" s="8">
         <v>1</v>
@@ -12439,7 +12443,7 @@
         <v>299</v>
       </c>
       <c r="J313" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K313" s="8">
         <v>4</v>
@@ -12474,10 +12478,10 @@
         <v>299</v>
       </c>
       <c r="J314" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K314" s="8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="315" spans="1:11" x14ac:dyDescent="0.25">
@@ -12509,7 +12513,7 @@
         <v>299</v>
       </c>
       <c r="J315" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K315" s="8">
         <v>4</v>
@@ -12544,7 +12548,7 @@
         <v>299</v>
       </c>
       <c r="J316" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K316" s="8">
         <v>1</v>
@@ -12579,7 +12583,7 @@
         <v>299</v>
       </c>
       <c r="J317" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K317" s="8">
         <v>4</v>
@@ -12614,7 +12618,7 @@
         <v>299</v>
       </c>
       <c r="J318" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K318" s="8">
         <v>2</v>
@@ -12649,7 +12653,7 @@
         <v>299</v>
       </c>
       <c r="J319" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K319" s="8">
         <v>2</v>
@@ -12684,7 +12688,7 @@
         <v>299</v>
       </c>
       <c r="J320" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K320" s="8">
         <v>1</v>
@@ -12719,7 +12723,7 @@
         <v>299</v>
       </c>
       <c r="J321" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K321" s="8">
         <v>4</v>
@@ -12754,7 +12758,7 @@
         <v>299</v>
       </c>
       <c r="J322" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K322" s="8">
         <v>1</v>
@@ -12789,7 +12793,7 @@
         <v>299</v>
       </c>
       <c r="J323" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K323" s="8">
         <v>4</v>
@@ -12824,7 +12828,7 @@
         <v>298</v>
       </c>
       <c r="J324" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K324" s="8">
         <v>1</v>
@@ -12859,7 +12863,7 @@
         <v>298</v>
       </c>
       <c r="J325" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K325" s="8">
         <v>4</v>
@@ -12894,7 +12898,7 @@
         <v>298</v>
       </c>
       <c r="J326" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K326" s="8">
         <v>1</v>
@@ -12929,7 +12933,7 @@
         <v>298</v>
       </c>
       <c r="J327" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K327" s="8">
         <v>4</v>
@@ -13524,7 +13528,7 @@
         <v>299</v>
       </c>
       <c r="J344" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K344" s="8">
         <v>1</v>
@@ -13559,7 +13563,7 @@
         <v>299</v>
       </c>
       <c r="J345" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K345" s="8">
         <v>4</v>
@@ -13594,7 +13598,7 @@
         <v>299</v>
       </c>
       <c r="J346" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K346" s="8">
         <v>1</v>
@@ -13629,7 +13633,7 @@
         <v>299</v>
       </c>
       <c r="J347" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K347" s="8">
         <v>4</v>
@@ -13664,7 +13668,7 @@
         <v>299</v>
       </c>
       <c r="J348" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K348" s="8">
         <v>2</v>
@@ -13699,7 +13703,7 @@
         <v>299</v>
       </c>
       <c r="J349" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K349" s="8">
         <v>2</v>
@@ -13734,7 +13738,7 @@
         <v>299</v>
       </c>
       <c r="J350" s="11" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="K350" s="8">
         <v>1</v>
@@ -13769,7 +13773,7 @@
         <v>299</v>
       </c>
       <c r="J351" s="11" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="K351" s="8">
         <v>4</v>
